--- a/backend/fms_core/static/submission_templates/Experiment_run_Infinium_v4_13_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_Infinium_v4_13_0.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="483">
   <si>
     <t xml:space="preserve">Experiment Submission Template</t>
   </si>
@@ -437,6 +437,9 @@
     <t xml:space="preserve">Instrument</t>
   </si>
   <si>
+    <t xml:space="preserve">8x1 Coords</t>
+  </si>
+  <si>
     <t xml:space="preserve">12x2 Coords</t>
   </si>
   <si>
@@ -461,19 +464,25 @@
     <t xml:space="preserve">infinium epic 8 beadchip</t>
   </si>
   <si>
+    <t xml:space="preserve">B01</t>
+  </si>
+  <si>
     <t xml:space="preserve">A02</t>
   </si>
   <si>
     <t xml:space="preserve">Sample failed - Remove sample from study workflow</t>
   </si>
   <si>
-    <t xml:space="preserve">B01</t>
+    <t xml:space="preserve">C01</t>
   </si>
   <si>
     <t xml:space="preserve">A03</t>
   </si>
   <si>
     <t xml:space="preserve">Repeat step - Move to next step and repeat current step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D01</t>
   </si>
   <si>
     <t xml:space="preserve">B02</t>
@@ -485,10 +494,13 @@
     <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
   </si>
   <si>
-    <t xml:space="preserve">C01</t>
+    <t xml:space="preserve">E01</t>
   </si>
   <si>
     <t xml:space="preserve">A05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F01</t>
   </si>
   <si>
     <t xml:space="preserve">C02</t>
@@ -497,19 +509,19 @@
     <t xml:space="preserve">A06</t>
   </si>
   <si>
-    <t xml:space="preserve">D01</t>
+    <t xml:space="preserve">G01</t>
   </si>
   <si>
     <t xml:space="preserve">A07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H01</t>
   </si>
   <si>
     <t xml:space="preserve">D02</t>
   </si>
   <si>
     <t xml:space="preserve">A08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E01</t>
   </si>
   <si>
     <t xml:space="preserve">A09</t>
@@ -521,9 +533,6 @@
     <t xml:space="preserve">A10</t>
   </si>
   <si>
-    <t xml:space="preserve">F01</t>
-  </si>
-  <si>
     <t xml:space="preserve">A11</t>
   </si>
   <si>
@@ -533,9 +542,6 @@
     <t xml:space="preserve">A12</t>
   </si>
   <si>
-    <t xml:space="preserve">G01</t>
-  </si>
-  <si>
     <t xml:space="preserve">A13</t>
   </si>
   <si>
@@ -543,9 +549,6 @@
   </si>
   <si>
     <t xml:space="preserve">A14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H01</t>
   </si>
   <si>
     <t xml:space="preserve">B03</t>
@@ -2028,6 +2031,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2089,6 +2109,22 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="infinium_epic_8_beadchip" displayName="infinium_epic_8_beadchip" ref="C1:C9" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="8x1 Coords"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="infinium_gs_24_beadchip" displayName="infinium_gs_24_beadchip" ref="D1:D25" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="12x2 Coords"/>
+  </tableColumns>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2739,7 +2775,7 @@
       <c r="AP7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2783,7 +2819,7 @@
       <c r="AP8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2827,7 +2863,7 @@
       <c r="AP9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2871,7 +2907,7 @@
       <c r="AP10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2915,7 +2951,7 @@
       <c r="AP11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2959,7 +2995,7 @@
       <c r="AP12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3003,7 +3039,7 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3047,7 +3083,7 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3091,7 +3127,7 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3135,7 +3171,7 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3179,7 +3215,7 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3223,7 +3259,7 @@
       <c r="AP18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3267,7 +3303,7 @@
       <c r="AP19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3311,7 +3347,7 @@
       <c r="AP20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3355,7 +3391,7 @@
       <c r="AP21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3399,7 +3435,7 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -3443,7 +3479,7 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3487,7 +3523,7 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -3531,7 +3567,7 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3575,7 +3611,7 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -3619,7 +3655,7 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3663,7 +3699,7 @@
       <c r="AP28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3707,7 +3743,7 @@
       <c r="AP29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3751,7 +3787,7 @@
       <c r="AP30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3795,7 +3831,7 @@
       <c r="AP31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3839,7 +3875,7 @@
       <c r="AP32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3883,7 +3919,7 @@
       <c r="AP33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3927,7 +3963,7 @@
       <c r="AP34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3971,7 +4007,7 @@
       <c r="AP35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -4015,7 +4051,7 @@
       <c r="AP36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -4059,7 +4095,7 @@
       <c r="AP37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4103,7 +4139,7 @@
       <c r="AP38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4147,7 +4183,7 @@
       <c r="AP39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -4191,7 +4227,7 @@
       <c r="AP40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -4235,7 +4271,7 @@
       <c r="AP41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -4279,7 +4315,7 @@
       <c r="AP42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -4323,7 +4359,7 @@
       <c r="AP43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -4367,7 +4403,7 @@
       <c r="AP44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -4411,7 +4447,7 @@
       <c r="AP45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -4455,7 +4491,7 @@
       <c r="AP46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -4499,7 +4535,7 @@
       <c r="AP47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -4543,7 +4579,7 @@
       <c r="AP48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -4587,7 +4623,7 @@
       <c r="AP49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -4631,7 +4667,7 @@
       <c r="AP50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -4675,7 +4711,7 @@
       <c r="AP51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4719,7 +4755,7 @@
       <c r="AP52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4763,7 +4799,7 @@
       <c r="AP53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4807,7 +4843,7 @@
       <c r="AP54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -4851,7 +4887,7 @@
       <c r="AP55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
+      <c r="A56" s="17"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4895,7 +4931,7 @@
       <c r="AP56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -4939,7 +4975,7 @@
       <c r="AP57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -4983,7 +5019,7 @@
       <c r="AP58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5027,7 +5063,7 @@
       <c r="AP59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5071,7 +5107,7 @@
       <c r="AP60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5115,7 +5151,7 @@
       <c r="AP61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5159,7 +5195,7 @@
       <c r="AP62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5203,7 +5239,7 @@
       <c r="AP63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5247,7 +5283,7 @@
       <c r="AP64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5291,7 +5327,7 @@
       <c r="AP65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5335,7 +5371,7 @@
       <c r="AP66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5379,7 +5415,7 @@
       <c r="AP67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5423,7 +5459,7 @@
       <c r="AP68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3"/>
+      <c r="A69" s="17"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5467,7 +5503,7 @@
       <c r="AP69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5511,7 +5547,7 @@
       <c r="AP70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -5555,7 +5591,7 @@
       <c r="AP71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -5599,7 +5635,7 @@
       <c r="AP72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -5643,7 +5679,7 @@
       <c r="AP73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -5687,7 +5723,7 @@
       <c r="AP74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5731,7 +5767,7 @@
       <c r="AP75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -5775,7 +5811,7 @@
       <c r="AP76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -5819,7 +5855,7 @@
       <c r="AP77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -5863,7 +5899,7 @@
       <c r="AP78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3"/>
+      <c r="A79" s="17"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -5907,7 +5943,7 @@
       <c r="AP79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3"/>
+      <c r="A80" s="17"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -5951,7 +5987,7 @@
       <c r="AP80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -5995,7 +6031,7 @@
       <c r="AP81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3"/>
+      <c r="A82" s="17"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -6039,7 +6075,7 @@
       <c r="AP82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -6083,7 +6119,7 @@
       <c r="AP83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -6127,7 +6163,7 @@
       <c r="AP84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3"/>
+      <c r="A85" s="17"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -6171,7 +6207,7 @@
       <c r="AP85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -6215,7 +6251,7 @@
       <c r="AP86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -6259,7 +6295,7 @@
       <c r="AP87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -6303,7 +6339,7 @@
       <c r="AP88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3"/>
+      <c r="A89" s="17"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -6347,7 +6383,7 @@
       <c r="AP89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -6391,7 +6427,7 @@
       <c r="AP90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3"/>
+      <c r="A91" s="17"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -6435,7 +6471,7 @@
       <c r="AP91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3"/>
+      <c r="A92" s="17"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -6479,7 +6515,7 @@
       <c r="AP92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3"/>
+      <c r="A93" s="17"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -6523,7 +6559,7 @@
       <c r="AP93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -6567,7 +6603,7 @@
       <c r="AP94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3"/>
+      <c r="A95" s="17"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -6611,7 +6647,7 @@
       <c r="AP95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3"/>
+      <c r="A96" s="17"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -6655,7 +6691,7 @@
       <c r="AP96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3"/>
+      <c r="A97" s="17"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -6699,7 +6735,7 @@
       <c r="AP97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3"/>
+      <c r="A98" s="17"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -6743,7 +6779,7 @@
       <c r="AP98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3"/>
+      <c r="A99" s="17"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -6787,7 +6823,7 @@
       <c r="AP99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -6831,7 +6867,7 @@
       <c r="AP100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3"/>
+      <c r="A101" s="17"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -6875,7 +6911,7 @@
       <c r="AP101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3"/>
+      <c r="A102" s="17"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -6919,7 +6955,7 @@
       <c r="AP102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3"/>
+      <c r="A103" s="17"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -6963,7 +6999,7 @@
       <c r="AP103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3"/>
+      <c r="A104" s="17"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -7007,7 +7043,7 @@
       <c r="AP104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3"/>
+      <c r="A105" s="17"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -7051,7 +7087,7 @@
       <c r="AP105" s="3"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3"/>
+      <c r="A106" s="17"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -7095,7 +7131,7 @@
       <c r="AP106" s="3"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3"/>
+      <c r="A107" s="17"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -7139,7 +7175,7 @@
       <c r="AP107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3"/>
+      <c r="A108" s="17"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -7183,7 +7219,7 @@
       <c r="AP108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3"/>
+      <c r="A109" s="17"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -7227,7 +7263,7 @@
       <c r="AP109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3"/>
+      <c r="A110" s="17"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -7271,7 +7307,7 @@
       <c r="AP110" s="3"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3"/>
+      <c r="A111" s="17"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -7315,7 +7351,7 @@
       <c r="AP111" s="3"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3"/>
+      <c r="A112" s="17"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -7359,7 +7395,7 @@
       <c r="AP112" s="3"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3"/>
+      <c r="A113" s="17"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -7403,7 +7439,7 @@
       <c r="AP113" s="3"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3"/>
+      <c r="A114" s="17"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -7447,7 +7483,7 @@
       <c r="AP114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3"/>
+      <c r="A115" s="17"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -7491,7 +7527,7 @@
       <c r="AP115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3"/>
+      <c r="A116" s="17"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -7535,7 +7571,7 @@
       <c r="AP116" s="3"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3"/>
+      <c r="A117" s="17"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -7579,7 +7615,7 @@
       <c r="AP117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3"/>
+      <c r="A118" s="17"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -7623,7 +7659,7 @@
       <c r="AP118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3"/>
+      <c r="A119" s="17"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -7667,7 +7703,7 @@
       <c r="AP119" s="3"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3"/>
+      <c r="A120" s="17"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -7711,7 +7747,7 @@
       <c r="AP120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3"/>
+      <c r="A121" s="17"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -7755,7 +7791,7 @@
       <c r="AP121" s="3"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3"/>
+      <c r="A122" s="17"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -7799,7 +7835,7 @@
       <c r="AP122" s="3"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3"/>
+      <c r="A123" s="17"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -7843,7 +7879,7 @@
       <c r="AP123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3"/>
+      <c r="A124" s="17"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -7887,7 +7923,7 @@
       <c r="AP124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3"/>
+      <c r="A125" s="17"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -7931,7 +7967,7 @@
       <c r="AP125" s="3"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3"/>
+      <c r="A126" s="17"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -7975,7 +8011,7 @@
       <c r="AP126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3"/>
+      <c r="A127" s="17"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -8019,7 +8055,7 @@
       <c r="AP127" s="3"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3"/>
+      <c r="A128" s="17"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -8063,7 +8099,7 @@
       <c r="AP128" s="3"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3"/>
+      <c r="A129" s="17"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -8107,7 +8143,7 @@
       <c r="AP129" s="3"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3"/>
+      <c r="A130" s="17"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -8151,7 +8187,7 @@
       <c r="AP130" s="3"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3"/>
+      <c r="A131" s="17"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -8195,7 +8231,7 @@
       <c r="AP131" s="3"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3"/>
+      <c r="A132" s="17"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -8239,7 +8275,7 @@
       <c r="AP132" s="3"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3"/>
+      <c r="A133" s="17"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -8283,7 +8319,7 @@
       <c r="AP133" s="3"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3"/>
+      <c r="A134" s="17"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -8327,7 +8363,7 @@
       <c r="AP134" s="3"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3"/>
+      <c r="A135" s="17"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -8371,7 +8407,7 @@
       <c r="AP135" s="3"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3"/>
+      <c r="A136" s="17"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -8415,7 +8451,7 @@
       <c r="AP136" s="3"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3"/>
+      <c r="A137" s="17"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -8459,7 +8495,7 @@
       <c r="AP137" s="3"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3"/>
+      <c r="A138" s="17"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -8503,7 +8539,7 @@
       <c r="AP138" s="3"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3"/>
+      <c r="A139" s="17"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -8547,7 +8583,7 @@
       <c r="AP139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3"/>
+      <c r="A140" s="17"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -8591,7 +8627,7 @@
       <c r="AP140" s="3"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3"/>
+      <c r="A141" s="17"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -8635,7 +8671,7 @@
       <c r="AP141" s="3"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3"/>
+      <c r="A142" s="17"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -8679,7 +8715,7 @@
       <c r="AP142" s="3"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3"/>
+      <c r="A143" s="17"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -8723,7 +8759,7 @@
       <c r="AP143" s="3"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3"/>
+      <c r="A144" s="17"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -8767,7 +8803,7 @@
       <c r="AP144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="3"/>
+      <c r="A145" s="17"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -8811,7 +8847,7 @@
       <c r="AP145" s="3"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3"/>
+      <c r="A146" s="17"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -8855,7 +8891,7 @@
       <c r="AP146" s="3"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3"/>
+      <c r="A147" s="17"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -8899,7 +8935,7 @@
       <c r="AP147" s="3"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3"/>
+      <c r="A148" s="17"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -8943,7 +8979,7 @@
       <c r="AP148" s="3"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3"/>
+      <c r="A149" s="17"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -8987,7 +9023,7 @@
       <c r="AP149" s="3"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="3"/>
+      <c r="A150" s="17"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -9031,7 +9067,7 @@
       <c r="AP150" s="3"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="3"/>
+      <c r="A151" s="17"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -9075,7 +9111,7 @@
       <c r="AP151" s="3"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="3"/>
+      <c r="A152" s="17"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -9119,7 +9155,7 @@
       <c r="AP152" s="3"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="3"/>
+      <c r="A153" s="17"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -9163,7 +9199,7 @@
       <c r="AP153" s="3"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="3"/>
+      <c r="A154" s="17"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -9207,7 +9243,7 @@
       <c r="AP154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="3"/>
+      <c r="A155" s="17"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -9251,7 +9287,7 @@
       <c r="AP155" s="3"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="3"/>
+      <c r="A156" s="17"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -9295,7 +9331,7 @@
       <c r="AP156" s="3"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="3"/>
+      <c r="A157" s="17"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -9339,7 +9375,7 @@
       <c r="AP157" s="3"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="3"/>
+      <c r="A158" s="17"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -9383,7 +9419,7 @@
       <c r="AP158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="3"/>
+      <c r="A159" s="17"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -9427,7 +9463,7 @@
       <c r="AP159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="3"/>
+      <c r="A160" s="17"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -9471,7 +9507,7 @@
       <c r="AP160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="3"/>
+      <c r="A161" s="17"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -9515,7 +9551,7 @@
       <c r="AP161" s="3"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="3"/>
+      <c r="A162" s="17"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -9559,7 +9595,7 @@
       <c r="AP162" s="3"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="3"/>
+      <c r="A163" s="17"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -9603,7 +9639,7 @@
       <c r="AP163" s="3"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="3"/>
+      <c r="A164" s="17"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -9647,7 +9683,7 @@
       <c r="AP164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="3"/>
+      <c r="A165" s="17"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -9691,7 +9727,7 @@
       <c r="AP165" s="3"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="3"/>
+      <c r="A166" s="17"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -9735,7 +9771,7 @@
       <c r="AP166" s="3"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="3"/>
+      <c r="A167" s="17"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -9779,7 +9815,7 @@
       <c r="AP167" s="3"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="3"/>
+      <c r="A168" s="17"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -9823,7 +9859,7 @@
       <c r="AP168" s="3"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="3"/>
+      <c r="A169" s="17"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -9867,7 +9903,7 @@
       <c r="AP169" s="3"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="3"/>
+      <c r="A170" s="17"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -9911,7 +9947,7 @@
       <c r="AP170" s="3"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="3"/>
+      <c r="A171" s="17"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -9955,7 +9991,7 @@
       <c r="AP171" s="3"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="3"/>
+      <c r="A172" s="17"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -9999,7 +10035,7 @@
       <c r="AP172" s="3"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="3"/>
+      <c r="A173" s="17"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -10043,7 +10079,7 @@
       <c r="AP173" s="3"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="3"/>
+      <c r="A174" s="17"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -10087,7 +10123,7 @@
       <c r="AP174" s="3"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="3"/>
+      <c r="A175" s="17"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -10131,7 +10167,7 @@
       <c r="AP175" s="3"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="3"/>
+      <c r="A176" s="17"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -10175,7 +10211,7 @@
       <c r="AP176" s="3"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="3"/>
+      <c r="A177" s="17"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -10219,7 +10255,7 @@
       <c r="AP177" s="3"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3"/>
+      <c r="A178" s="17"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -10263,7 +10299,7 @@
       <c r="AP178" s="3"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3"/>
+      <c r="A179" s="17"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -10307,7 +10343,7 @@
       <c r="AP179" s="3"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="3"/>
+      <c r="A180" s="17"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -10351,7 +10387,7 @@
       <c r="AP180" s="3"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="3"/>
+      <c r="A181" s="17"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -10395,7 +10431,7 @@
       <c r="AP181" s="3"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3"/>
+      <c r="A182" s="17"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -10439,7 +10475,7 @@
       <c r="AP182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3"/>
+      <c r="A183" s="17"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -10483,7 +10519,7 @@
       <c r="AP183" s="3"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3"/>
+      <c r="A184" s="17"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -10527,7 +10563,7 @@
       <c r="AP184" s="3"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="3"/>
+      <c r="A185" s="17"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -10571,7 +10607,7 @@
       <c r="AP185" s="3"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="3"/>
+      <c r="A186" s="17"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -10615,7 +10651,7 @@
       <c r="AP186" s="3"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="3"/>
+      <c r="A187" s="17"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -10659,7 +10695,7 @@
       <c r="AP187" s="3"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3"/>
+      <c r="A188" s="17"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -10703,7 +10739,7 @@
       <c r="AP188" s="3"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="3"/>
+      <c r="A189" s="17"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -10747,7 +10783,7 @@
       <c r="AP189" s="3"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="3"/>
+      <c r="A190" s="17"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -10791,7 +10827,7 @@
       <c r="AP190" s="3"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="3"/>
+      <c r="A191" s="17"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -10835,7 +10871,7 @@
       <c r="AP191" s="3"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="3"/>
+      <c r="A192" s="17"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -10879,7 +10915,7 @@
       <c r="AP192" s="3"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="3"/>
+      <c r="A193" s="17"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -10923,7 +10959,7 @@
       <c r="AP193" s="3"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="3"/>
+      <c r="A194" s="17"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -10967,7 +11003,7 @@
       <c r="AP194" s="3"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="3"/>
+      <c r="A195" s="17"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -11011,7 +11047,7 @@
       <c r="AP195" s="3"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="3"/>
+      <c r="A196" s="17"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -11055,7 +11091,7 @@
       <c r="AP196" s="3"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="3"/>
+      <c r="A197" s="17"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -11099,7 +11135,7 @@
       <c r="AP197" s="3"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="3"/>
+      <c r="A198" s="17"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -11143,7 +11179,7 @@
       <c r="AP198" s="3"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="3"/>
+      <c r="A199" s="17"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -11187,7 +11223,7 @@
       <c r="AP199" s="3"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="3"/>
+      <c r="A200" s="17"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -11231,7 +11267,7 @@
       <c r="AP200" s="3"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="3"/>
+      <c r="A201" s="17"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -11275,7 +11311,7 @@
       <c r="AP201" s="3"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="3"/>
+      <c r="A202" s="17"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -11319,7 +11355,7 @@
       <c r="AP202" s="3"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="3"/>
+      <c r="A203" s="17"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -11363,7 +11399,7 @@
       <c r="AP203" s="3"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="3"/>
+      <c r="A204" s="17"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -11407,7 +11443,7 @@
       <c r="AP204" s="3"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="3"/>
+      <c r="A205" s="17"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -11451,7 +11487,7 @@
       <c r="AP205" s="3"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="3"/>
+      <c r="A206" s="17"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -11495,7 +11531,7 @@
       <c r="AP206" s="3"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="3"/>
+      <c r="A207" s="17"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -11539,7 +11575,7 @@
       <c r="AP207" s="3"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="3"/>
+      <c r="A208" s="17"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -11583,7 +11619,7 @@
       <c r="AP208" s="3"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="3"/>
+      <c r="A209" s="17"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -11627,7 +11663,7 @@
       <c r="AP209" s="3"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="3"/>
+      <c r="A210" s="17"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -11671,7 +11707,7 @@
       <c r="AP210" s="3"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="3"/>
+      <c r="A211" s="17"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -11715,7 +11751,7 @@
       <c r="AP211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="3"/>
+      <c r="A212" s="17"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -11759,7 +11795,7 @@
       <c r="AP212" s="3"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="3"/>
+      <c r="A213" s="17"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -11803,7 +11839,7 @@
       <c r="AP213" s="3"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="3"/>
+      <c r="A214" s="17"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -11847,7 +11883,7 @@
       <c r="AP214" s="3"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3"/>
+      <c r="A215" s="17"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -11891,7 +11927,7 @@
       <c r="AP215" s="3"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="3"/>
+      <c r="A216" s="17"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -11935,7 +11971,7 @@
       <c r="AP216" s="3"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="3"/>
+      <c r="A217" s="17"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -11979,7 +12015,7 @@
       <c r="AP217" s="3"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="3"/>
+      <c r="A218" s="17"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -12023,7 +12059,7 @@
       <c r="AP218" s="3"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="3"/>
+      <c r="A219" s="17"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -12067,7 +12103,7 @@
       <c r="AP219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="3"/>
+      <c r="A220" s="17"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -12111,7 +12147,7 @@
       <c r="AP220" s="3"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="3"/>
+      <c r="A221" s="17"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -12155,7 +12191,7 @@
       <c r="AP221" s="3"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="3"/>
+      <c r="A222" s="17"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -12199,7 +12235,7 @@
       <c r="AP222" s="3"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="3"/>
+      <c r="A223" s="17"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -12243,7 +12279,7 @@
       <c r="AP223" s="3"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="3"/>
+      <c r="A224" s="17"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -12287,7 +12323,7 @@
       <c r="AP224" s="3"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="3"/>
+      <c r="A225" s="17"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -12331,7 +12367,7 @@
       <c r="AP225" s="3"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="3"/>
+      <c r="A226" s="17"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -12375,7 +12411,7 @@
       <c r="AP226" s="3"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="3"/>
+      <c r="A227" s="17"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -12419,7 +12455,7 @@
       <c r="AP227" s="3"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="3"/>
+      <c r="A228" s="17"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -12463,7 +12499,7 @@
       <c r="AP228" s="3"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="3"/>
+      <c r="A229" s="17"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -12507,7 +12543,7 @@
       <c r="AP229" s="3"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="3"/>
+      <c r="A230" s="17"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -12551,7 +12587,7 @@
       <c r="AP230" s="3"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="3"/>
+      <c r="A231" s="17"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -12595,7 +12631,7 @@
       <c r="AP231" s="3"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="3"/>
+      <c r="A232" s="17"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -12639,7 +12675,7 @@
       <c r="AP232" s="3"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="3"/>
+      <c r="A233" s="17"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -12683,7 +12719,7 @@
       <c r="AP233" s="3"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="3"/>
+      <c r="A234" s="17"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -12727,7 +12763,7 @@
       <c r="AP234" s="3"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="3"/>
+      <c r="A235" s="17"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -12771,7 +12807,7 @@
       <c r="AP235" s="3"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="3"/>
+      <c r="A236" s="17"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -12815,7 +12851,7 @@
       <c r="AP236" s="3"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="3"/>
+      <c r="A237" s="17"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -12859,7 +12895,7 @@
       <c r="AP237" s="3"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="3"/>
+      <c r="A238" s="17"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -12903,7 +12939,7 @@
       <c r="AP238" s="3"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="3"/>
+      <c r="A239" s="17"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -12947,7 +12983,7 @@
       <c r="AP239" s="3"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="3"/>
+      <c r="A240" s="17"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -12991,7 +13027,7 @@
       <c r="AP240" s="3"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="3"/>
+      <c r="A241" s="17"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -13035,7 +13071,7 @@
       <c r="AP241" s="3"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="3"/>
+      <c r="A242" s="17"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -13079,7 +13115,7 @@
       <c r="AP242" s="3"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="3"/>
+      <c r="A243" s="17"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -13123,7 +13159,7 @@
       <c r="AP243" s="3"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="3"/>
+      <c r="A244" s="17"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -13167,7 +13203,7 @@
       <c r="AP244" s="3"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="3"/>
+      <c r="A245" s="17"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -13211,7 +13247,7 @@
       <c r="AP245" s="3"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="3"/>
+      <c r="A246" s="17"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -13255,7 +13291,7 @@
       <c r="AP246" s="3"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="3"/>
+      <c r="A247" s="17"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -13299,7 +13335,7 @@
       <c r="AP247" s="3"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="3"/>
+      <c r="A248" s="17"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -13343,7 +13379,7 @@
       <c r="AP248" s="3"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="3"/>
+      <c r="A249" s="17"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -13387,7 +13423,7 @@
       <c r="AP249" s="3"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="3"/>
+      <c r="A250" s="17"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -13431,7 +13467,7 @@
       <c r="AP250" s="3"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="3"/>
+      <c r="A251" s="17"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -13475,7 +13511,7 @@
       <c r="AP251" s="3"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="3"/>
+      <c r="A252" s="17"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -13519,7 +13555,7 @@
       <c r="AP252" s="3"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="3"/>
+      <c r="A253" s="17"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -13563,7 +13599,7 @@
       <c r="AP253" s="3"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="3"/>
+      <c r="A254" s="17"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -13607,7 +13643,7 @@
       <c r="AP254" s="3"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="3"/>
+      <c r="A255" s="17"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -13651,7 +13687,7 @@
       <c r="AP255" s="3"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="3"/>
+      <c r="A256" s="17"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -13695,7 +13731,7 @@
       <c r="AP256" s="3"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="3"/>
+      <c r="A257" s="17"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -13739,7 +13775,7 @@
       <c r="AP257" s="3"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="3"/>
+      <c r="A258" s="17"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -13783,7 +13819,7 @@
       <c r="AP258" s="3"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="3"/>
+      <c r="A259" s="17"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -13827,7 +13863,7 @@
       <c r="AP259" s="3"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="3"/>
+      <c r="A260" s="17"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -13871,7 +13907,7 @@
       <c r="AP260" s="3"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="3"/>
+      <c r="A261" s="17"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -13915,7 +13951,7 @@
       <c r="AP261" s="3"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="3"/>
+      <c r="A262" s="17"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -13959,7 +13995,7 @@
       <c r="AP262" s="3"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="3"/>
+      <c r="A263" s="17"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -14003,7 +14039,7 @@
       <c r="AP263" s="3"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="3"/>
+      <c r="A264" s="17"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -14047,7 +14083,7 @@
       <c r="AP264" s="3"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="3"/>
+      <c r="A265" s="17"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -14091,7 +14127,7 @@
       <c r="AP265" s="3"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="3"/>
+      <c r="A266" s="17"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -14135,7 +14171,7 @@
       <c r="AP266" s="3"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="3"/>
+      <c r="A267" s="17"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -14179,7 +14215,7 @@
       <c r="AP267" s="3"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="3"/>
+      <c r="A268" s="17"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -14223,7 +14259,7 @@
       <c r="AP268" s="3"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="3"/>
+      <c r="A269" s="17"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -14267,7 +14303,7 @@
       <c r="AP269" s="3"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="3"/>
+      <c r="A270" s="17"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -14311,7 +14347,7 @@
       <c r="AP270" s="3"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="3"/>
+      <c r="A271" s="17"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -14355,7 +14391,7 @@
       <c r="AP271" s="3"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="3"/>
+      <c r="A272" s="17"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -14399,7 +14435,7 @@
       <c r="AP272" s="3"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="3"/>
+      <c r="A273" s="17"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -14443,7 +14479,7 @@
       <c r="AP273" s="3"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="3"/>
+      <c r="A274" s="17"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -14487,7 +14523,7 @@
       <c r="AP274" s="3"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="3"/>
+      <c r="A275" s="17"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -14531,7 +14567,7 @@
       <c r="AP275" s="3"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="3"/>
+      <c r="A276" s="17"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -14575,7 +14611,7 @@
       <c r="AP276" s="3"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="3"/>
+      <c r="A277" s="17"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -14619,7 +14655,7 @@
       <c r="AP277" s="3"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A278" s="3"/>
+      <c r="A278" s="17"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -14663,7 +14699,7 @@
       <c r="AP278" s="3"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="3"/>
+      <c r="A279" s="17"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -14707,7 +14743,7 @@
       <c r="AP279" s="3"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A280" s="3"/>
+      <c r="A280" s="17"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -14751,7 +14787,7 @@
       <c r="AP280" s="3"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="3"/>
+      <c r="A281" s="17"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -14795,7 +14831,7 @@
       <c r="AP281" s="3"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A282" s="3"/>
+      <c r="A282" s="17"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -14839,7 +14875,7 @@
       <c r="AP282" s="3"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="3"/>
+      <c r="A283" s="17"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -14883,7 +14919,7 @@
       <c r="AP283" s="3"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="3"/>
+      <c r="A284" s="17"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -14927,7 +14963,7 @@
       <c r="AP284" s="3"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="3"/>
+      <c r="A285" s="17"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -14971,7 +15007,7 @@
       <c r="AP285" s="3"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A286" s="3"/>
+      <c r="A286" s="17"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -15015,7 +15051,7 @@
       <c r="AP286" s="3"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A287" s="3"/>
+      <c r="A287" s="17"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -15059,7 +15095,7 @@
       <c r="AP287" s="3"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A288" s="3"/>
+      <c r="A288" s="17"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -15103,7 +15139,7 @@
       <c r="AP288" s="3"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="3"/>
+      <c r="A289" s="17"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -15147,7 +15183,7 @@
       <c r="AP289" s="3"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="3"/>
+      <c r="A290" s="17"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -15191,7 +15227,7 @@
       <c r="AP290" s="3"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="3"/>
+      <c r="A291" s="17"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -15235,7 +15271,7 @@
       <c r="AP291" s="3"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="3"/>
+      <c r="A292" s="17"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -15279,7 +15315,7 @@
       <c r="AP292" s="3"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A293" s="3"/>
+      <c r="A293" s="17"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -15323,7 +15359,7 @@
       <c r="AP293" s="3"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A294" s="3"/>
+      <c r="A294" s="17"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -15367,7 +15403,7 @@
       <c r="AP294" s="3"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="3"/>
+      <c r="A295" s="17"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -15411,7 +15447,7 @@
       <c r="AP295" s="3"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="3"/>
+      <c r="A296" s="17"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -15455,7 +15491,7 @@
       <c r="AP296" s="3"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="3"/>
+      <c r="A297" s="17"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -15499,7 +15535,7 @@
       <c r="AP297" s="3"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="3"/>
+      <c r="A298" s="17"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -15543,7 +15579,7 @@
       <c r="AP298" s="3"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="3"/>
+      <c r="A299" s="17"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -15587,7 +15623,7 @@
       <c r="AP299" s="3"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="3"/>
+      <c r="A300" s="17"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -15631,7 +15667,7 @@
       <c r="AP300" s="3"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="3"/>
+      <c r="A301" s="17"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -15675,7 +15711,7 @@
       <c r="AP301" s="3"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="3"/>
+      <c r="A302" s="17"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -15719,7 +15755,7 @@
       <c r="AP302" s="3"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A303" s="3"/>
+      <c r="A303" s="17"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -15763,7 +15799,7 @@
       <c r="AP303" s="3"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A304" s="3"/>
+      <c r="A304" s="17"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -15807,7 +15843,7 @@
       <c r="AP304" s="3"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A305" s="3"/>
+      <c r="A305" s="17"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -15851,7 +15887,7 @@
       <c r="AP305" s="3"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="3"/>
+      <c r="A306" s="17"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -15895,7 +15931,7 @@
       <c r="AP306" s="3"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="3"/>
+      <c r="A307" s="17"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -15939,7 +15975,7 @@
       <c r="AP307" s="3"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="3"/>
+      <c r="A308" s="17"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -15983,7 +16019,7 @@
       <c r="AP308" s="3"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="3"/>
+      <c r="A309" s="17"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -16027,7 +16063,7 @@
       <c r="AP309" s="3"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="3"/>
+      <c r="A310" s="17"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -16071,7 +16107,7 @@
       <c r="AP310" s="3"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="3"/>
+      <c r="A311" s="17"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -16115,7 +16151,7 @@
       <c r="AP311" s="3"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A312" s="3"/>
+      <c r="A312" s="17"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -46259,13 +46295,17 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C100" type="list">
       <formula1>Index!$B$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D100" type="list">
       <formula1>Index!$A$2:$A$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="A7:A312" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -46288,9 +46328,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46374,7 +46412,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -46384,7 +46422,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="24"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -46394,7 +46432,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -46404,7 +46442,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -46414,7 +46452,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -46424,7 +46462,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -46434,7 +46472,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -46444,7 +46482,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -46454,7 +46492,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -46464,7 +46502,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -46474,7 +46512,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -46484,7 +46522,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -46494,7 +46532,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -46504,7 +46542,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -46514,7 +46552,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -46524,7 +46562,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -53635,13 +53673,13 @@
       <c r="F1000" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="8">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:D101" type="list">
-      <formula1>Index!$D$2:$D$97</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G5:G100 F101" type="list">
-      <formula1>Index!$C$2:$C$25</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G100 F101" type="list">
+      <formula1>Index!$D$2:$D$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A100" type="list">
@@ -53649,15 +53687,23 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5:H100" type="none">
-      <formula1>Index!$C$2:$C$25</formula1>
+      <formula1>Index!$D$2:$D$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I5:I100" type="list">
-      <formula1>Index!$F$2:$F$5</formula1>
+      <formula1>Index!$G$2:$G$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E100" type="none">
-      <formula1>Index!$D$2:$D$97</formula1>
+      <formula1>#ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G5:G8 G10:G99" type="list">
+      <formula1>INDIRECT(SUBSTITUTE(INDEX(Experiments!$D$7:$D$173, MATCH($A5,Experiments!$A$7:$A$173,0))," ","_"))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G9" type="list">
+      <formula1>INDIRECT(SUBSTITUTE(INDEX(Experiments!$D$7:$D$100, MATCH($A9,Experiments!$A$7:$A$100,0))," ","_"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -54157,7 +54203,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -54166,11 +54212,13 @@
   <sheetFormatPr defaultColWidth="14.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="52.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="7" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="8" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54189,1130 +54237,1245 @@
       <c r="E1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
-        <v>112</v>
-      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="23" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="23" t="s">
-        <v>114</v>
-      </c>
+      <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="23" t="s">
-        <v>116</v>
-      </c>
+      <c r="C12" s="23"/>
       <c r="D12" s="23" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="23" t="s">
-        <v>118</v>
-      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="23" t="s">
-        <v>120</v>
-      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>121</v>
+        <v>97</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="23" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="23"/>
       <c r="D15" s="23" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>123</v>
+        <v>104</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="23" t="s">
-        <v>124</v>
-      </c>
+      <c r="C16" s="23"/>
       <c r="D16" s="23" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>126</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="23" t="s">
-        <v>127</v>
-      </c>
+      <c r="C17" s="23"/>
       <c r="D17" s="23" t="s">
         <v>128</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>129</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="23" t="s">
-        <v>130</v>
-      </c>
+      <c r="C18" s="23"/>
       <c r="D18" s="23" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>132</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
-        <v>133</v>
-      </c>
+      <c r="C19" s="23"/>
       <c r="D19" s="23" t="s">
         <v>134</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>135</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="23" t="s">
-        <v>136</v>
-      </c>
+      <c r="C20" s="23"/>
       <c r="D20" s="23" t="s">
         <v>137</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>138</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="23" t="s">
-        <v>139</v>
-      </c>
+      <c r="C21" s="23"/>
       <c r="D21" s="23" t="s">
         <v>140</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>141</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="23" t="s">
-        <v>142</v>
-      </c>
+      <c r="C22" s="23"/>
       <c r="D22" s="23" t="s">
         <v>143</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>144</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="23" t="s">
-        <v>145</v>
-      </c>
+      <c r="C23" s="23"/>
       <c r="D23" s="23" t="s">
         <v>146</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>147</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="23" t="s">
-        <v>148</v>
-      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="23" t="s">
         <v>149</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>150</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="23" t="s">
-        <v>151</v>
-      </c>
+      <c r="C25" s="23"/>
       <c r="D25" s="23" t="s">
         <v>152</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>153</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
-      <c r="D26" s="23" t="s">
-        <v>104</v>
-      </c>
+      <c r="D26" s="23"/>
       <c r="E26" s="23" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="23" t="s">
-        <v>106</v>
-      </c>
+      <c r="D27" s="23"/>
       <c r="E27" s="23" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="23" t="s">
-        <v>154</v>
-      </c>
+      <c r="D28" s="23"/>
       <c r="E28" s="23" t="s">
-        <v>125</v>
+        <v>155</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="23" t="s">
-        <v>155</v>
-      </c>
+      <c r="D29" s="23"/>
       <c r="E29" s="23" t="s">
-        <v>128</v>
+        <v>156</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="23" t="s">
-        <v>156</v>
-      </c>
+      <c r="D30" s="23"/>
       <c r="E30" s="23" t="s">
-        <v>131</v>
+        <v>157</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
-      <c r="D31" s="23" t="s">
-        <v>157</v>
-      </c>
+      <c r="D31" s="23"/>
       <c r="E31" s="23" t="s">
-        <v>134</v>
+        <v>158</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="23" t="s">
-        <v>158</v>
-      </c>
+      <c r="D32" s="23"/>
       <c r="E32" s="23" t="s">
-        <v>137</v>
+        <v>159</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="23" t="s">
-        <v>159</v>
-      </c>
+      <c r="D33" s="23"/>
       <c r="E33" s="23" t="s">
-        <v>140</v>
+        <v>160</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="23" t="s">
-        <v>160</v>
-      </c>
+      <c r="D34" s="23"/>
       <c r="E34" s="23" t="s">
-        <v>143</v>
+        <v>161</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="23" t="s">
-        <v>161</v>
-      </c>
+      <c r="D35" s="23"/>
       <c r="E35" s="23" t="s">
-        <v>146</v>
+        <v>162</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="23" t="s">
-        <v>162</v>
-      </c>
+      <c r="D36" s="23"/>
       <c r="E36" s="23" t="s">
-        <v>149</v>
+        <v>163</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="23" t="s">
-        <v>163</v>
-      </c>
+      <c r="D37" s="23"/>
       <c r="E37" s="23" t="s">
-        <v>152</v>
+        <v>164</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="D38" s="23"/>
       <c r="E38" s="23" t="s">
-        <v>164</v>
+        <v>103</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="23" t="s">
-        <v>110</v>
-      </c>
+      <c r="D39" s="23"/>
       <c r="E39" s="23" t="s">
-        <v>165</v>
+        <v>115</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
-      <c r="D40" s="23" t="s">
-        <v>166</v>
-      </c>
+      <c r="D40" s="23"/>
       <c r="E40" s="23" t="s">
         <v>167</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
-        <v>168</v>
-      </c>
+      <c r="D41" s="23"/>
       <c r="E41" s="23" t="s">
         <v>169</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
-      <c r="D42" s="23" t="s">
-        <v>170</v>
-      </c>
+      <c r="D42" s="23"/>
       <c r="E42" s="23" t="s">
         <v>171</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
-        <v>172</v>
-      </c>
+      <c r="D43" s="23"/>
       <c r="E43" s="23" t="s">
         <v>173</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
-        <v>174</v>
-      </c>
+      <c r="D44" s="23"/>
       <c r="E44" s="23" t="s">
         <v>175</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="23" t="s">
-        <v>176</v>
-      </c>
+      <c r="D45" s="23"/>
       <c r="E45" s="23" t="s">
         <v>177</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="23" t="s">
-        <v>178</v>
-      </c>
+      <c r="D46" s="23"/>
       <c r="E46" s="23" t="s">
         <v>179</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
-      <c r="D47" s="23" t="s">
-        <v>180</v>
-      </c>
+      <c r="D47" s="23"/>
       <c r="E47" s="23" t="s">
         <v>181</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
-      <c r="D48" s="23" t="s">
-        <v>182</v>
-      </c>
+      <c r="D48" s="23"/>
       <c r="E48" s="23" t="s">
         <v>183</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
-      <c r="D49" s="23" t="s">
-        <v>184</v>
-      </c>
+      <c r="D49" s="23"/>
       <c r="E49" s="23" t="s">
         <v>185</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
-      <c r="D50" s="23" t="s">
-        <v>112</v>
-      </c>
+      <c r="D50" s="23"/>
       <c r="E50" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
-      <c r="D51" s="23" t="s">
-        <v>114</v>
-      </c>
+      <c r="D51" s="23"/>
       <c r="E51" s="23" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
-      <c r="D52" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="D52" s="23"/>
       <c r="E52" s="23" t="s">
-        <v>154</v>
+        <v>187</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="23"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
-      <c r="D53" s="23" t="s">
-        <v>187</v>
-      </c>
+      <c r="D53" s="23"/>
       <c r="E53" s="23" t="s">
-        <v>155</v>
+        <v>188</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="23"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
-      <c r="D54" s="23" t="s">
-        <v>188</v>
-      </c>
+      <c r="D54" s="23"/>
       <c r="E54" s="23" t="s">
-        <v>156</v>
+        <v>189</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
-      <c r="D55" s="23" t="s">
-        <v>189</v>
-      </c>
+      <c r="D55" s="23"/>
       <c r="E55" s="23" t="s">
-        <v>157</v>
+        <v>190</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
-      <c r="D56" s="23" t="s">
-        <v>190</v>
-      </c>
+      <c r="D56" s="23"/>
       <c r="E56" s="23" t="s">
-        <v>158</v>
+        <v>191</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
-      <c r="D57" s="23" t="s">
-        <v>191</v>
-      </c>
+      <c r="D57" s="23"/>
       <c r="E57" s="23" t="s">
-        <v>159</v>
+        <v>192</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
-      <c r="D58" s="23" t="s">
-        <v>192</v>
-      </c>
+      <c r="D58" s="23"/>
       <c r="E58" s="23" t="s">
-        <v>160</v>
+        <v>193</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
-      <c r="D59" s="23" t="s">
-        <v>193</v>
-      </c>
+      <c r="D59" s="23"/>
       <c r="E59" s="23" t="s">
-        <v>161</v>
+        <v>194</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
-      <c r="D60" s="23" t="s">
-        <v>194</v>
-      </c>
+      <c r="D60" s="23"/>
       <c r="E60" s="23" t="s">
-        <v>162</v>
+        <v>195</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
-      <c r="D61" s="23" t="s">
-        <v>195</v>
-      </c>
+      <c r="D61" s="23"/>
       <c r="E61" s="23" t="s">
-        <v>163</v>
+        <v>196</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
-      <c r="D62" s="23" t="s">
-        <v>116</v>
-      </c>
+      <c r="D62" s="23"/>
       <c r="E62" s="23" t="s">
-        <v>196</v>
+        <v>109</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
-      <c r="D63" s="23" t="s">
-        <v>118</v>
-      </c>
+      <c r="D63" s="23"/>
       <c r="E63" s="23" t="s">
-        <v>197</v>
+        <v>121</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
-      <c r="D64" s="23" t="s">
-        <v>198</v>
-      </c>
+      <c r="D64" s="23"/>
       <c r="E64" s="23" t="s">
         <v>199</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
-      <c r="D65" s="23" t="s">
-        <v>200</v>
-      </c>
+      <c r="D65" s="23"/>
       <c r="E65" s="23" t="s">
         <v>201</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="23"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
-      <c r="D66" s="23" t="s">
-        <v>202</v>
-      </c>
+      <c r="D66" s="23"/>
       <c r="E66" s="23" t="s">
         <v>203</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="23"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
-      <c r="D67" s="23" t="s">
-        <v>204</v>
-      </c>
+      <c r="D67" s="23"/>
       <c r="E67" s="23" t="s">
         <v>205</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
-      <c r="D68" s="23" t="s">
-        <v>206</v>
-      </c>
+      <c r="D68" s="23"/>
       <c r="E68" s="23" t="s">
         <v>207</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="23"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
-      <c r="D69" s="23" t="s">
-        <v>208</v>
-      </c>
+      <c r="D69" s="23"/>
       <c r="E69" s="23" t="s">
         <v>209</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
-      <c r="D70" s="23" t="s">
-        <v>210</v>
-      </c>
+      <c r="D70" s="23"/>
       <c r="E70" s="23" t="s">
         <v>211</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
-      <c r="D71" s="23" t="s">
-        <v>212</v>
-      </c>
+      <c r="D71" s="23"/>
       <c r="E71" s="23" t="s">
         <v>213</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
-      <c r="D72" s="23" t="s">
-        <v>214</v>
-      </c>
+      <c r="D72" s="23"/>
       <c r="E72" s="23" t="s">
         <v>215</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="23"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
-      <c r="D73" s="23" t="s">
-        <v>216</v>
-      </c>
+      <c r="D73" s="23"/>
       <c r="E73" s="23" t="s">
         <v>217</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
-      <c r="D74" s="23" t="s">
-        <v>120</v>
-      </c>
+      <c r="D74" s="23"/>
       <c r="E74" s="23" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
-      <c r="D75" s="23" t="s">
-        <v>122</v>
-      </c>
+      <c r="D75" s="23"/>
       <c r="E75" s="23" t="s">
-        <v>110</v>
+        <v>124</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23"/>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
-      <c r="D76" s="23" t="s">
-        <v>218</v>
-      </c>
+      <c r="D76" s="23"/>
       <c r="E76" s="23" t="s">
-        <v>166</v>
+        <v>219</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="23"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
-      <c r="D77" s="23" t="s">
-        <v>219</v>
-      </c>
+      <c r="D77" s="23"/>
       <c r="E77" s="23" t="s">
-        <v>168</v>
+        <v>220</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
-      <c r="D78" s="23" t="s">
-        <v>220</v>
-      </c>
+      <c r="D78" s="23"/>
       <c r="E78" s="23" t="s">
-        <v>170</v>
+        <v>221</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
-      <c r="D79" s="23" t="s">
-        <v>221</v>
-      </c>
+      <c r="D79" s="23"/>
       <c r="E79" s="23" t="s">
-        <v>172</v>
+        <v>222</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
-      <c r="D80" s="23" t="s">
-        <v>222</v>
-      </c>
+      <c r="D80" s="23"/>
       <c r="E80" s="23" t="s">
-        <v>174</v>
+        <v>223</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
-      <c r="D81" s="23" t="s">
-        <v>223</v>
-      </c>
+      <c r="D81" s="23"/>
       <c r="E81" s="23" t="s">
-        <v>176</v>
+        <v>224</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
-      <c r="D82" s="23" t="s">
-        <v>224</v>
-      </c>
+      <c r="D82" s="23"/>
       <c r="E82" s="23" t="s">
-        <v>178</v>
+        <v>225</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23"/>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
-      <c r="D83" s="23" t="s">
-        <v>225</v>
-      </c>
+      <c r="D83" s="23"/>
       <c r="E83" s="23" t="s">
-        <v>180</v>
+        <v>226</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="23"/>
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
-      <c r="D84" s="23" t="s">
-        <v>226</v>
-      </c>
+      <c r="D84" s="23"/>
       <c r="E84" s="23" t="s">
-        <v>182</v>
+        <v>227</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="23"/>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
-      <c r="D85" s="23" t="s">
-        <v>227</v>
-      </c>
+      <c r="D85" s="23"/>
       <c r="E85" s="23" t="s">
-        <v>184</v>
+        <v>228</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
-      <c r="D86" s="23" t="s">
-        <v>124</v>
-      </c>
+      <c r="D86" s="23"/>
       <c r="E86" s="23" t="s">
-        <v>228</v>
+        <v>114</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
-      <c r="D87" s="23" t="s">
-        <v>127</v>
-      </c>
+      <c r="D87" s="23"/>
       <c r="E87" s="23" t="s">
-        <v>229</v>
+        <v>128</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
-      <c r="D88" s="23" t="s">
-        <v>230</v>
-      </c>
+      <c r="D88" s="23"/>
       <c r="E88" s="23" t="s">
         <v>231</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="23"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
-      <c r="D89" s="23" t="s">
-        <v>232</v>
-      </c>
+      <c r="D89" s="23"/>
       <c r="E89" s="23" t="s">
         <v>233</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23"/>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
-      <c r="D90" s="23" t="s">
-        <v>234</v>
-      </c>
+      <c r="D90" s="23"/>
       <c r="E90" s="23" t="s">
         <v>235</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
-      <c r="D91" s="23" t="s">
-        <v>236</v>
-      </c>
+      <c r="D91" s="23"/>
       <c r="E91" s="23" t="s">
         <v>237</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="23"/>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
-      <c r="D92" s="23" t="s">
-        <v>238</v>
-      </c>
+      <c r="D92" s="23"/>
       <c r="E92" s="23" t="s">
         <v>239</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
-      <c r="D93" s="23" t="s">
-        <v>240</v>
-      </c>
+      <c r="D93" s="23"/>
       <c r="E93" s="23" t="s">
         <v>241</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="23"/>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
-      <c r="D94" s="23" t="s">
-        <v>242</v>
-      </c>
+      <c r="D94" s="23"/>
       <c r="E94" s="23" t="s">
         <v>243</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="23"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
-      <c r="D95" s="23" t="s">
-        <v>244</v>
-      </c>
+      <c r="D95" s="23"/>
       <c r="E95" s="23" t="s">
         <v>245</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="23"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
-      <c r="D96" s="23" t="s">
-        <v>246</v>
-      </c>
+      <c r="D96" s="23"/>
       <c r="E96" s="23" t="s">
         <v>247</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="23"/>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
-      <c r="D97" s="23" t="s">
-        <v>248</v>
-      </c>
+      <c r="D97" s="23"/>
       <c r="E97" s="23" t="s">
         <v>249</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55320,8 +55483,9 @@
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
       <c r="D98" s="23"/>
-      <c r="E98" s="23" t="s">
-        <v>112</v>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55329,8 +55493,9 @@
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
-      <c r="E99" s="23" t="s">
-        <v>114</v>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55338,8 +55503,9 @@
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
-      <c r="E100" s="23" t="s">
-        <v>186</v>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55347,8 +55513,9 @@
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
-      <c r="E101" s="23" t="s">
-        <v>187</v>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55356,8 +55523,9 @@
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
-      <c r="E102" s="23" t="s">
-        <v>188</v>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55365,8 +55533,9 @@
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
-      <c r="E103" s="23" t="s">
-        <v>189</v>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55374,8 +55543,9 @@
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
-      <c r="E104" s="23" t="s">
-        <v>190</v>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55383,8 +55553,9 @@
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
-      <c r="E105" s="23" t="s">
-        <v>191</v>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55392,8 +55563,9 @@
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
-      <c r="E106" s="23" t="s">
-        <v>192</v>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55401,8 +55573,9 @@
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
-      <c r="E107" s="23" t="s">
-        <v>193</v>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55410,8 +55583,9 @@
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
-      <c r="E108" s="23" t="s">
-        <v>194</v>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55419,8 +55593,9 @@
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
-      <c r="E109" s="23" t="s">
-        <v>195</v>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55428,8 +55603,9 @@
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
-      <c r="E110" s="23" t="s">
-        <v>250</v>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55437,8 +55613,9 @@
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
-      <c r="E111" s="23" t="s">
-        <v>251</v>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55446,8 +55623,9 @@
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
-      <c r="E112" s="23" t="s">
-        <v>252</v>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55455,8 +55633,9 @@
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
-      <c r="E113" s="23" t="s">
-        <v>253</v>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55464,8 +55643,9 @@
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
-      <c r="E114" s="23" t="s">
-        <v>254</v>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55473,8 +55653,9 @@
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
-      <c r="E115" s="23" t="s">
-        <v>255</v>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55482,8 +55663,9 @@
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
-      <c r="E116" s="23" t="s">
-        <v>256</v>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55491,8 +55673,9 @@
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
-      <c r="E117" s="23" t="s">
-        <v>257</v>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55500,8 +55683,9 @@
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
       <c r="D118" s="23"/>
-      <c r="E118" s="23" t="s">
-        <v>258</v>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55509,8 +55693,9 @@
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
-      <c r="E119" s="23" t="s">
-        <v>259</v>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55518,8 +55703,9 @@
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
       <c r="D120" s="23"/>
-      <c r="E120" s="23" t="s">
-        <v>260</v>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55527,8 +55713,9 @@
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
       <c r="D121" s="23"/>
-      <c r="E121" s="23" t="s">
-        <v>261</v>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55536,8 +55723,9 @@
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
-      <c r="E122" s="23" t="s">
-        <v>116</v>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55545,8 +55733,9 @@
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
-      <c r="E123" s="23" t="s">
-        <v>118</v>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55554,8 +55743,9 @@
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
-      <c r="E124" s="23" t="s">
-        <v>198</v>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55563,8 +55753,9 @@
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
-      <c r="E125" s="23" t="s">
-        <v>200</v>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55572,8 +55763,9 @@
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
       <c r="D126" s="23"/>
-      <c r="E126" s="23" t="s">
-        <v>202</v>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55581,8 +55773,9 @@
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
       <c r="D127" s="23"/>
-      <c r="E127" s="23" t="s">
-        <v>204</v>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55590,8 +55783,9 @@
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
       <c r="D128" s="23"/>
-      <c r="E128" s="23" t="s">
-        <v>206</v>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55599,8 +55793,9 @@
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
       <c r="D129" s="23"/>
-      <c r="E129" s="23" t="s">
-        <v>208</v>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55608,8 +55803,9 @@
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
-      <c r="E130" s="23" t="s">
-        <v>210</v>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55617,8 +55813,9 @@
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
-      <c r="E131" s="23" t="s">
-        <v>212</v>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55626,8 +55823,9 @@
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
       <c r="D132" s="23"/>
-      <c r="E132" s="23" t="s">
-        <v>214</v>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55635,8 +55833,9 @@
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
-      <c r="E133" s="23" t="s">
-        <v>216</v>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55644,8 +55843,9 @@
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
-      <c r="E134" s="23" t="s">
-        <v>262</v>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55653,8 +55853,9 @@
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
-      <c r="E135" s="23" t="s">
-        <v>263</v>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55662,8 +55863,9 @@
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
-      <c r="E136" s="23" t="s">
-        <v>264</v>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55671,8 +55873,9 @@
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
-      <c r="E137" s="23" t="s">
-        <v>265</v>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55680,8 +55883,9 @@
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
       <c r="D138" s="23"/>
-      <c r="E138" s="23" t="s">
-        <v>266</v>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55689,8 +55893,9 @@
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
       <c r="D139" s="23"/>
-      <c r="E139" s="23" t="s">
-        <v>267</v>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55698,8 +55903,9 @@
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
-      <c r="E140" s="23" t="s">
-        <v>268</v>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55707,8 +55913,9 @@
       <c r="B141" s="23"/>
       <c r="C141" s="23"/>
       <c r="D141" s="23"/>
-      <c r="E141" s="23" t="s">
-        <v>269</v>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55716,8 +55923,9 @@
       <c r="B142" s="23"/>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
-      <c r="E142" s="23" t="s">
-        <v>270</v>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55725,8 +55933,9 @@
       <c r="B143" s="23"/>
       <c r="C143" s="23"/>
       <c r="D143" s="23"/>
-      <c r="E143" s="23" t="s">
-        <v>271</v>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55734,8 +55943,9 @@
       <c r="B144" s="23"/>
       <c r="C144" s="23"/>
       <c r="D144" s="23"/>
-      <c r="E144" s="23" t="s">
-        <v>272</v>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55743,8 +55953,9 @@
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
       <c r="D145" s="23"/>
-      <c r="E145" s="23" t="s">
-        <v>273</v>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55752,8 +55963,9 @@
       <c r="B146" s="23"/>
       <c r="C146" s="23"/>
       <c r="D146" s="23"/>
-      <c r="E146" s="23" t="s">
-        <v>120</v>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55761,8 +55973,9 @@
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
-      <c r="E147" s="23" t="s">
-        <v>122</v>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55770,8 +55983,9 @@
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
-      <c r="E148" s="23" t="s">
-        <v>218</v>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55779,8 +55993,9 @@
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
-      <c r="E149" s="23" t="s">
-        <v>219</v>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55788,8 +56003,9 @@
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
-      <c r="E150" s="23" t="s">
-        <v>220</v>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55797,8 +56013,9 @@
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
-      <c r="E151" s="23" t="s">
-        <v>221</v>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55806,8 +56023,9 @@
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
-      <c r="E152" s="23" t="s">
-        <v>222</v>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55815,8 +56033,9 @@
       <c r="B153" s="23"/>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
-      <c r="E153" s="23" t="s">
-        <v>223</v>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55824,8 +56043,9 @@
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
-      <c r="E154" s="23" t="s">
-        <v>224</v>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55833,8 +56053,9 @@
       <c r="B155" s="23"/>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
-      <c r="E155" s="23" t="s">
-        <v>225</v>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55842,8 +56063,9 @@
       <c r="B156" s="23"/>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
-      <c r="E156" s="23" t="s">
-        <v>226</v>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55851,8 +56073,9 @@
       <c r="B157" s="23"/>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
-      <c r="E157" s="23" t="s">
-        <v>227</v>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55860,8 +56083,9 @@
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
-      <c r="E158" s="23" t="s">
-        <v>274</v>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55869,8 +56093,9 @@
       <c r="B159" s="23"/>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
-      <c r="E159" s="23" t="s">
-        <v>275</v>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55878,8 +56103,9 @@
       <c r="B160" s="23"/>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
-      <c r="E160" s="23" t="s">
-        <v>276</v>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55887,8 +56113,9 @@
       <c r="B161" s="23"/>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
-      <c r="E161" s="23" t="s">
-        <v>277</v>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55896,8 +56123,9 @@
       <c r="B162" s="23"/>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
-      <c r="E162" s="23" t="s">
-        <v>278</v>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55905,8 +56133,9 @@
       <c r="B163" s="23"/>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
-      <c r="E163" s="23" t="s">
-        <v>279</v>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55914,8 +56143,9 @@
       <c r="B164" s="23"/>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
-      <c r="E164" s="23" t="s">
-        <v>280</v>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55923,8 +56153,9 @@
       <c r="B165" s="23"/>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
-      <c r="E165" s="23" t="s">
-        <v>281</v>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55932,8 +56163,9 @@
       <c r="B166" s="23"/>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
-      <c r="E166" s="23" t="s">
-        <v>282</v>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55941,8 +56173,9 @@
       <c r="B167" s="23"/>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
-      <c r="E167" s="23" t="s">
-        <v>283</v>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55950,8 +56183,9 @@
       <c r="B168" s="23"/>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
-      <c r="E168" s="23" t="s">
-        <v>284</v>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55959,8 +56193,9 @@
       <c r="B169" s="23"/>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
-      <c r="E169" s="23" t="s">
-        <v>285</v>
+      <c r="E169" s="23"/>
+      <c r="F169" s="23" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55968,8 +56203,9 @@
       <c r="B170" s="23"/>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
-      <c r="E170" s="23" t="s">
-        <v>124</v>
+      <c r="E170" s="23"/>
+      <c r="F170" s="23" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55977,8 +56213,9 @@
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
-      <c r="E171" s="23" t="s">
-        <v>127</v>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55986,8 +56223,9 @@
       <c r="B172" s="23"/>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
-      <c r="E172" s="23" t="s">
-        <v>230</v>
+      <c r="E172" s="23"/>
+      <c r="F172" s="23" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55995,8 +56233,9 @@
       <c r="B173" s="23"/>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
-      <c r="E173" s="23" t="s">
-        <v>232</v>
+      <c r="E173" s="23"/>
+      <c r="F173" s="23" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56004,8 +56243,9 @@
       <c r="B174" s="23"/>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
-      <c r="E174" s="23" t="s">
-        <v>234</v>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56013,8 +56253,9 @@
       <c r="B175" s="23"/>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
-      <c r="E175" s="23" t="s">
-        <v>236</v>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56022,8 +56263,9 @@
       <c r="B176" s="23"/>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
-      <c r="E176" s="23" t="s">
-        <v>238</v>
+      <c r="E176" s="23"/>
+      <c r="F176" s="23" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56031,8 +56273,9 @@
       <c r="B177" s="23"/>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
-      <c r="E177" s="23" t="s">
-        <v>240</v>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56040,8 +56283,9 @@
       <c r="B178" s="23"/>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
-      <c r="E178" s="23" t="s">
-        <v>242</v>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56049,8 +56293,9 @@
       <c r="B179" s="23"/>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
-      <c r="E179" s="23" t="s">
-        <v>244</v>
+      <c r="E179" s="23"/>
+      <c r="F179" s="23" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56058,8 +56303,9 @@
       <c r="B180" s="23"/>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
-      <c r="E180" s="23" t="s">
-        <v>246</v>
+      <c r="E180" s="23"/>
+      <c r="F180" s="23" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56067,8 +56313,9 @@
       <c r="B181" s="23"/>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
-      <c r="E181" s="23" t="s">
-        <v>248</v>
+      <c r="E181" s="23"/>
+      <c r="F181" s="23" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56076,8 +56323,9 @@
       <c r="B182" s="23"/>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
-      <c r="E182" s="23" t="s">
-        <v>286</v>
+      <c r="E182" s="23"/>
+      <c r="F182" s="23" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56085,8 +56333,9 @@
       <c r="B183" s="23"/>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
-      <c r="E183" s="23" t="s">
-        <v>287</v>
+      <c r="E183" s="23"/>
+      <c r="F183" s="23" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56094,8 +56343,9 @@
       <c r="B184" s="23"/>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
-      <c r="E184" s="23" t="s">
-        <v>288</v>
+      <c r="E184" s="23"/>
+      <c r="F184" s="23" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56103,8 +56353,9 @@
       <c r="B185" s="23"/>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
-      <c r="E185" s="23" t="s">
-        <v>289</v>
+      <c r="E185" s="23"/>
+      <c r="F185" s="23" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56112,8 +56363,9 @@
       <c r="B186" s="23"/>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
-      <c r="E186" s="23" t="s">
-        <v>290</v>
+      <c r="E186" s="23"/>
+      <c r="F186" s="23" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56121,8 +56373,9 @@
       <c r="B187" s="23"/>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
-      <c r="E187" s="23" t="s">
-        <v>291</v>
+      <c r="E187" s="23"/>
+      <c r="F187" s="23" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56130,8 +56383,9 @@
       <c r="B188" s="23"/>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
-      <c r="E188" s="23" t="s">
-        <v>292</v>
+      <c r="E188" s="23"/>
+      <c r="F188" s="23" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56139,8 +56393,9 @@
       <c r="B189" s="23"/>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
-      <c r="E189" s="23" t="s">
-        <v>293</v>
+      <c r="E189" s="23"/>
+      <c r="F189" s="23" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56148,8 +56403,9 @@
       <c r="B190" s="23"/>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
-      <c r="E190" s="23" t="s">
-        <v>294</v>
+      <c r="E190" s="23"/>
+      <c r="F190" s="23" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56157,8 +56413,9 @@
       <c r="B191" s="23"/>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
-      <c r="E191" s="23" t="s">
-        <v>295</v>
+      <c r="E191" s="23"/>
+      <c r="F191" s="23" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56166,8 +56423,9 @@
       <c r="B192" s="23"/>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
-      <c r="E192" s="23" t="s">
-        <v>296</v>
+      <c r="E192" s="23"/>
+      <c r="F192" s="23" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56175,8 +56433,9 @@
       <c r="B193" s="23"/>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
-      <c r="E193" s="23" t="s">
-        <v>297</v>
+      <c r="E193" s="23"/>
+      <c r="F193" s="23" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56184,8 +56443,9 @@
       <c r="B194" s="23"/>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
-      <c r="E194" s="23" t="s">
-        <v>130</v>
+      <c r="E194" s="23"/>
+      <c r="F194" s="23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56193,8 +56453,9 @@
       <c r="B195" s="23"/>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
-      <c r="E195" s="23" t="s">
-        <v>133</v>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56202,8 +56463,9 @@
       <c r="B196" s="23"/>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
-      <c r="E196" s="23" t="s">
-        <v>298</v>
+      <c r="E196" s="23"/>
+      <c r="F196" s="23" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56211,8 +56473,9 @@
       <c r="B197" s="23"/>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
-      <c r="E197" s="23" t="s">
-        <v>299</v>
+      <c r="E197" s="23"/>
+      <c r="F197" s="23" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56220,8 +56483,9 @@
       <c r="B198" s="23"/>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
-      <c r="E198" s="23" t="s">
-        <v>300</v>
+      <c r="E198" s="23"/>
+      <c r="F198" s="23" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56229,8 +56493,9 @@
       <c r="B199" s="23"/>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
-      <c r="E199" s="23" t="s">
-        <v>301</v>
+      <c r="E199" s="23"/>
+      <c r="F199" s="23" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56238,8 +56503,9 @@
       <c r="B200" s="23"/>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
-      <c r="E200" s="23" t="s">
-        <v>302</v>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56247,8 +56513,9 @@
       <c r="B201" s="23"/>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
-      <c r="E201" s="23" t="s">
-        <v>303</v>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56256,8 +56523,9 @@
       <c r="B202" s="23"/>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
-      <c r="E202" s="23" t="s">
-        <v>304</v>
+      <c r="E202" s="23"/>
+      <c r="F202" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56265,8 +56533,9 @@
       <c r="B203" s="23"/>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
-      <c r="E203" s="23" t="s">
-        <v>305</v>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56274,8 +56543,9 @@
       <c r="B204" s="23"/>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
-      <c r="E204" s="23" t="s">
-        <v>306</v>
+      <c r="E204" s="23"/>
+      <c r="F204" s="23" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56283,8 +56553,9 @@
       <c r="B205" s="23"/>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
-      <c r="E205" s="23" t="s">
-        <v>307</v>
+      <c r="E205" s="23"/>
+      <c r="F205" s="23" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56292,8 +56563,9 @@
       <c r="B206" s="23"/>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
-      <c r="E206" s="23" t="s">
-        <v>308</v>
+      <c r="E206" s="23"/>
+      <c r="F206" s="23" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56301,8 +56573,9 @@
       <c r="B207" s="23"/>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
-      <c r="E207" s="23" t="s">
-        <v>309</v>
+      <c r="E207" s="23"/>
+      <c r="F207" s="23" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56310,8 +56583,9 @@
       <c r="B208" s="23"/>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
-      <c r="E208" s="23" t="s">
-        <v>310</v>
+      <c r="E208" s="23"/>
+      <c r="F208" s="23" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56319,8 +56593,9 @@
       <c r="B209" s="23"/>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
-      <c r="E209" s="23" t="s">
-        <v>311</v>
+      <c r="E209" s="23"/>
+      <c r="F209" s="23" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56328,8 +56603,9 @@
       <c r="B210" s="23"/>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
-      <c r="E210" s="23" t="s">
-        <v>312</v>
+      <c r="E210" s="23"/>
+      <c r="F210" s="23" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56337,8 +56613,9 @@
       <c r="B211" s="23"/>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
-      <c r="E211" s="23" t="s">
-        <v>313</v>
+      <c r="E211" s="23"/>
+      <c r="F211" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56346,8 +56623,9 @@
       <c r="B212" s="23"/>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
-      <c r="E212" s="23" t="s">
-        <v>314</v>
+      <c r="E212" s="23"/>
+      <c r="F212" s="23" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56355,8 +56633,9 @@
       <c r="B213" s="23"/>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
-      <c r="E213" s="23" t="s">
-        <v>315</v>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56364,8 +56643,9 @@
       <c r="B214" s="23"/>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
-      <c r="E214" s="23" t="s">
-        <v>316</v>
+      <c r="E214" s="23"/>
+      <c r="F214" s="23" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56373,8 +56653,9 @@
       <c r="B215" s="23"/>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
-      <c r="E215" s="23" t="s">
-        <v>317</v>
+      <c r="E215" s="23"/>
+      <c r="F215" s="23" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56382,8 +56663,9 @@
       <c r="B216" s="23"/>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
-      <c r="E216" s="23" t="s">
-        <v>318</v>
+      <c r="E216" s="23"/>
+      <c r="F216" s="23" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56391,8 +56673,9 @@
       <c r="B217" s="23"/>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
-      <c r="E217" s="23" t="s">
-        <v>319</v>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56400,8 +56683,9 @@
       <c r="B218" s="23"/>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
-      <c r="E218" s="23" t="s">
-        <v>136</v>
+      <c r="E218" s="23"/>
+      <c r="F218" s="23" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56409,8 +56693,9 @@
       <c r="B219" s="23"/>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
-      <c r="E219" s="23" t="s">
-        <v>139</v>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56418,8 +56703,9 @@
       <c r="B220" s="23"/>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
-      <c r="E220" s="23" t="s">
-        <v>320</v>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56427,8 +56713,9 @@
       <c r="B221" s="23"/>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
-      <c r="E221" s="23" t="s">
-        <v>321</v>
+      <c r="E221" s="23"/>
+      <c r="F221" s="23" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56436,8 +56723,9 @@
       <c r="B222" s="23"/>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
-      <c r="E222" s="23" t="s">
-        <v>322</v>
+      <c r="E222" s="23"/>
+      <c r="F222" s="23" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56445,8 +56733,9 @@
       <c r="B223" s="23"/>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
-      <c r="E223" s="23" t="s">
-        <v>323</v>
+      <c r="E223" s="23"/>
+      <c r="F223" s="23" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56454,8 +56743,9 @@
       <c r="B224" s="23"/>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
-      <c r="E224" s="23" t="s">
-        <v>324</v>
+      <c r="E224" s="23"/>
+      <c r="F224" s="23" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56463,8 +56753,9 @@
       <c r="B225" s="23"/>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
-      <c r="E225" s="23" t="s">
-        <v>325</v>
+      <c r="E225" s="23"/>
+      <c r="F225" s="23" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56472,8 +56763,9 @@
       <c r="B226" s="23"/>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
-      <c r="E226" s="23" t="s">
-        <v>326</v>
+      <c r="E226" s="23"/>
+      <c r="F226" s="23" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56481,8 +56773,9 @@
       <c r="B227" s="23"/>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
-      <c r="E227" s="23" t="s">
-        <v>327</v>
+      <c r="E227" s="23"/>
+      <c r="F227" s="23" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56490,8 +56783,9 @@
       <c r="B228" s="23"/>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
-      <c r="E228" s="23" t="s">
-        <v>328</v>
+      <c r="E228" s="23"/>
+      <c r="F228" s="23" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56499,8 +56793,9 @@
       <c r="B229" s="23"/>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
-      <c r="E229" s="23" t="s">
-        <v>329</v>
+      <c r="E229" s="23"/>
+      <c r="F229" s="23" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56508,8 +56803,9 @@
       <c r="B230" s="23"/>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
-      <c r="E230" s="23" t="s">
-        <v>330</v>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56517,8 +56813,9 @@
       <c r="B231" s="23"/>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
-      <c r="E231" s="23" t="s">
-        <v>331</v>
+      <c r="E231" s="23"/>
+      <c r="F231" s="23" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56526,8 +56823,9 @@
       <c r="B232" s="23"/>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
-      <c r="E232" s="23" t="s">
-        <v>332</v>
+      <c r="E232" s="23"/>
+      <c r="F232" s="23" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56535,8 +56833,9 @@
       <c r="B233" s="23"/>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
-      <c r="E233" s="23" t="s">
-        <v>333</v>
+      <c r="E233" s="23"/>
+      <c r="F233" s="23" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56544,8 +56843,9 @@
       <c r="B234" s="23"/>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
-      <c r="E234" s="23" t="s">
-        <v>334</v>
+      <c r="E234" s="23"/>
+      <c r="F234" s="23" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56553,8 +56853,9 @@
       <c r="B235" s="23"/>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
-      <c r="E235" s="23" t="s">
-        <v>335</v>
+      <c r="E235" s="23"/>
+      <c r="F235" s="23" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56562,8 +56863,9 @@
       <c r="B236" s="23"/>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
-      <c r="E236" s="23" t="s">
-        <v>336</v>
+      <c r="E236" s="23"/>
+      <c r="F236" s="23" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56571,8 +56873,9 @@
       <c r="B237" s="23"/>
       <c r="C237" s="23"/>
       <c r="D237" s="23"/>
-      <c r="E237" s="23" t="s">
-        <v>337</v>
+      <c r="E237" s="23"/>
+      <c r="F237" s="23" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56580,8 +56883,9 @@
       <c r="B238" s="23"/>
       <c r="C238" s="23"/>
       <c r="D238" s="23"/>
-      <c r="E238" s="23" t="s">
-        <v>338</v>
+      <c r="E238" s="23"/>
+      <c r="F238" s="23" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56589,8 +56893,9 @@
       <c r="B239" s="23"/>
       <c r="C239" s="23"/>
       <c r="D239" s="23"/>
-      <c r="E239" s="23" t="s">
-        <v>339</v>
+      <c r="E239" s="23"/>
+      <c r="F239" s="23" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56598,8 +56903,9 @@
       <c r="B240" s="23"/>
       <c r="C240" s="23"/>
       <c r="D240" s="23"/>
-      <c r="E240" s="23" t="s">
-        <v>340</v>
+      <c r="E240" s="23"/>
+      <c r="F240" s="23" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56607,8 +56913,9 @@
       <c r="B241" s="23"/>
       <c r="C241" s="23"/>
       <c r="D241" s="23"/>
-      <c r="E241" s="23" t="s">
-        <v>341</v>
+      <c r="E241" s="23"/>
+      <c r="F241" s="23" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56616,8 +56923,9 @@
       <c r="B242" s="23"/>
       <c r="C242" s="23"/>
       <c r="D242" s="23"/>
-      <c r="E242" s="23" t="s">
-        <v>142</v>
+      <c r="E242" s="23"/>
+      <c r="F242" s="23" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56625,8 +56933,9 @@
       <c r="B243" s="23"/>
       <c r="C243" s="23"/>
       <c r="D243" s="23"/>
-      <c r="E243" s="23" t="s">
-        <v>145</v>
+      <c r="E243" s="23"/>
+      <c r="F243" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56634,8 +56943,9 @@
       <c r="B244" s="23"/>
       <c r="C244" s="23"/>
       <c r="D244" s="23"/>
-      <c r="E244" s="23" t="s">
-        <v>342</v>
+      <c r="E244" s="23"/>
+      <c r="F244" s="23" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56643,8 +56953,9 @@
       <c r="B245" s="23"/>
       <c r="C245" s="23"/>
       <c r="D245" s="23"/>
-      <c r="E245" s="23" t="s">
-        <v>343</v>
+      <c r="E245" s="23"/>
+      <c r="F245" s="23" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56652,8 +56963,9 @@
       <c r="B246" s="23"/>
       <c r="C246" s="23"/>
       <c r="D246" s="23"/>
-      <c r="E246" s="23" t="s">
-        <v>344</v>
+      <c r="E246" s="23"/>
+      <c r="F246" s="23" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56661,8 +56973,9 @@
       <c r="B247" s="23"/>
       <c r="C247" s="23"/>
       <c r="D247" s="23"/>
-      <c r="E247" s="23" t="s">
-        <v>345</v>
+      <c r="E247" s="23"/>
+      <c r="F247" s="23" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56670,8 +56983,9 @@
       <c r="B248" s="23"/>
       <c r="C248" s="23"/>
       <c r="D248" s="23"/>
-      <c r="E248" s="23" t="s">
-        <v>346</v>
+      <c r="E248" s="23"/>
+      <c r="F248" s="23" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56679,8 +56993,9 @@
       <c r="B249" s="23"/>
       <c r="C249" s="23"/>
       <c r="D249" s="23"/>
-      <c r="E249" s="23" t="s">
-        <v>347</v>
+      <c r="E249" s="23"/>
+      <c r="F249" s="23" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56688,8 +57003,9 @@
       <c r="B250" s="23"/>
       <c r="C250" s="23"/>
       <c r="D250" s="23"/>
-      <c r="E250" s="23" t="s">
-        <v>348</v>
+      <c r="E250" s="23"/>
+      <c r="F250" s="23" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56697,8 +57013,9 @@
       <c r="B251" s="23"/>
       <c r="C251" s="23"/>
       <c r="D251" s="23"/>
-      <c r="E251" s="23" t="s">
-        <v>349</v>
+      <c r="E251" s="23"/>
+      <c r="F251" s="23" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56706,8 +57023,9 @@
       <c r="B252" s="23"/>
       <c r="C252" s="23"/>
       <c r="D252" s="23"/>
-      <c r="E252" s="23" t="s">
-        <v>350</v>
+      <c r="E252" s="23"/>
+      <c r="F252" s="23" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56715,8 +57033,9 @@
       <c r="B253" s="23"/>
       <c r="C253" s="23"/>
       <c r="D253" s="23"/>
-      <c r="E253" s="23" t="s">
-        <v>351</v>
+      <c r="E253" s="23"/>
+      <c r="F253" s="23" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56724,8 +57043,9 @@
       <c r="B254" s="23"/>
       <c r="C254" s="23"/>
       <c r="D254" s="23"/>
-      <c r="E254" s="23" t="s">
-        <v>352</v>
+      <c r="E254" s="23"/>
+      <c r="F254" s="23" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56733,8 +57053,9 @@
       <c r="B255" s="23"/>
       <c r="C255" s="23"/>
       <c r="D255" s="23"/>
-      <c r="E255" s="23" t="s">
-        <v>353</v>
+      <c r="E255" s="23"/>
+      <c r="F255" s="23" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56742,8 +57063,9 @@
       <c r="B256" s="23"/>
       <c r="C256" s="23"/>
       <c r="D256" s="23"/>
-      <c r="E256" s="23" t="s">
-        <v>354</v>
+      <c r="E256" s="23"/>
+      <c r="F256" s="23" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56751,8 +57073,9 @@
       <c r="B257" s="23"/>
       <c r="C257" s="23"/>
       <c r="D257" s="23"/>
-      <c r="E257" s="23" t="s">
-        <v>355</v>
+      <c r="E257" s="23"/>
+      <c r="F257" s="23" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56760,8 +57083,9 @@
       <c r="B258" s="23"/>
       <c r="C258" s="23"/>
       <c r="D258" s="23"/>
-      <c r="E258" s="23" t="s">
-        <v>356</v>
+      <c r="E258" s="23"/>
+      <c r="F258" s="23" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56769,8 +57093,9 @@
       <c r="B259" s="23"/>
       <c r="C259" s="23"/>
       <c r="D259" s="23"/>
-      <c r="E259" s="23" t="s">
-        <v>357</v>
+      <c r="E259" s="23"/>
+      <c r="F259" s="23" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56778,8 +57103,9 @@
       <c r="B260" s="23"/>
       <c r="C260" s="23"/>
       <c r="D260" s="23"/>
-      <c r="E260" s="23" t="s">
-        <v>358</v>
+      <c r="E260" s="23"/>
+      <c r="F260" s="23" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56787,8 +57113,9 @@
       <c r="B261" s="23"/>
       <c r="C261" s="23"/>
       <c r="D261" s="23"/>
-      <c r="E261" s="23" t="s">
-        <v>359</v>
+      <c r="E261" s="23"/>
+      <c r="F261" s="23" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56796,8 +57123,9 @@
       <c r="B262" s="23"/>
       <c r="C262" s="23"/>
       <c r="D262" s="23"/>
-      <c r="E262" s="23" t="s">
-        <v>360</v>
+      <c r="E262" s="23"/>
+      <c r="F262" s="23" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56805,8 +57133,9 @@
       <c r="B263" s="23"/>
       <c r="C263" s="23"/>
       <c r="D263" s="23"/>
-      <c r="E263" s="23" t="s">
-        <v>361</v>
+      <c r="E263" s="23"/>
+      <c r="F263" s="23" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56814,8 +57143,9 @@
       <c r="B264" s="23"/>
       <c r="C264" s="23"/>
       <c r="D264" s="23"/>
-      <c r="E264" s="23" t="s">
-        <v>362</v>
+      <c r="E264" s="23"/>
+      <c r="F264" s="23" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56823,8 +57153,9 @@
       <c r="B265" s="23"/>
       <c r="C265" s="23"/>
       <c r="D265" s="23"/>
-      <c r="E265" s="23" t="s">
-        <v>363</v>
+      <c r="E265" s="23"/>
+      <c r="F265" s="23" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56832,8 +57163,9 @@
       <c r="B266" s="23"/>
       <c r="C266" s="23"/>
       <c r="D266" s="23"/>
-      <c r="E266" s="23" t="s">
-        <v>148</v>
+      <c r="E266" s="23"/>
+      <c r="F266" s="23" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56841,8 +57173,9 @@
       <c r="B267" s="23"/>
       <c r="C267" s="23"/>
       <c r="D267" s="23"/>
-      <c r="E267" s="23" t="s">
-        <v>151</v>
+      <c r="E267" s="23"/>
+      <c r="F267" s="23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56850,8 +57183,9 @@
       <c r="B268" s="23"/>
       <c r="C268" s="23"/>
       <c r="D268" s="23"/>
-      <c r="E268" s="23" t="s">
-        <v>364</v>
+      <c r="E268" s="23"/>
+      <c r="F268" s="23" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56859,8 +57193,9 @@
       <c r="B269" s="23"/>
       <c r="C269" s="23"/>
       <c r="D269" s="23"/>
-      <c r="E269" s="23" t="s">
-        <v>365</v>
+      <c r="E269" s="23"/>
+      <c r="F269" s="23" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56868,8 +57203,9 @@
       <c r="B270" s="23"/>
       <c r="C270" s="23"/>
       <c r="D270" s="23"/>
-      <c r="E270" s="23" t="s">
-        <v>366</v>
+      <c r="E270" s="23"/>
+      <c r="F270" s="23" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56877,8 +57213,9 @@
       <c r="B271" s="23"/>
       <c r="C271" s="23"/>
       <c r="D271" s="23"/>
-      <c r="E271" s="23" t="s">
-        <v>367</v>
+      <c r="E271" s="23"/>
+      <c r="F271" s="23" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56886,8 +57223,9 @@
       <c r="B272" s="23"/>
       <c r="C272" s="23"/>
       <c r="D272" s="23"/>
-      <c r="E272" s="23" t="s">
-        <v>368</v>
+      <c r="E272" s="23"/>
+      <c r="F272" s="23" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56895,8 +57233,9 @@
       <c r="B273" s="23"/>
       <c r="C273" s="23"/>
       <c r="D273" s="23"/>
-      <c r="E273" s="23" t="s">
-        <v>369</v>
+      <c r="E273" s="23"/>
+      <c r="F273" s="23" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56904,8 +57243,9 @@
       <c r="B274" s="23"/>
       <c r="C274" s="23"/>
       <c r="D274" s="23"/>
-      <c r="E274" s="23" t="s">
-        <v>370</v>
+      <c r="E274" s="23"/>
+      <c r="F274" s="23" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56913,8 +57253,9 @@
       <c r="B275" s="23"/>
       <c r="C275" s="23"/>
       <c r="D275" s="23"/>
-      <c r="E275" s="23" t="s">
-        <v>371</v>
+      <c r="E275" s="23"/>
+      <c r="F275" s="23" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56922,8 +57263,9 @@
       <c r="B276" s="23"/>
       <c r="C276" s="23"/>
       <c r="D276" s="23"/>
-      <c r="E276" s="23" t="s">
-        <v>372</v>
+      <c r="E276" s="23"/>
+      <c r="F276" s="23" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56931,8 +57273,9 @@
       <c r="B277" s="23"/>
       <c r="C277" s="23"/>
       <c r="D277" s="23"/>
-      <c r="E277" s="23" t="s">
-        <v>373</v>
+      <c r="E277" s="23"/>
+      <c r="F277" s="23" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56940,8 +57283,9 @@
       <c r="B278" s="23"/>
       <c r="C278" s="23"/>
       <c r="D278" s="23"/>
-      <c r="E278" s="23" t="s">
-        <v>374</v>
+      <c r="E278" s="23"/>
+      <c r="F278" s="23" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56949,8 +57293,9 @@
       <c r="B279" s="23"/>
       <c r="C279" s="23"/>
       <c r="D279" s="23"/>
-      <c r="E279" s="23" t="s">
-        <v>375</v>
+      <c r="E279" s="23"/>
+      <c r="F279" s="23" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56958,8 +57303,9 @@
       <c r="B280" s="23"/>
       <c r="C280" s="23"/>
       <c r="D280" s="23"/>
-      <c r="E280" s="23" t="s">
-        <v>376</v>
+      <c r="E280" s="23"/>
+      <c r="F280" s="23" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56967,8 +57313,9 @@
       <c r="B281" s="23"/>
       <c r="C281" s="23"/>
       <c r="D281" s="23"/>
-      <c r="E281" s="23" t="s">
-        <v>377</v>
+      <c r="E281" s="23"/>
+      <c r="F281" s="23" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56976,8 +57323,9 @@
       <c r="B282" s="23"/>
       <c r="C282" s="23"/>
       <c r="D282" s="23"/>
-      <c r="E282" s="23" t="s">
-        <v>378</v>
+      <c r="E282" s="23"/>
+      <c r="F282" s="23" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56985,8 +57333,9 @@
       <c r="B283" s="23"/>
       <c r="C283" s="23"/>
       <c r="D283" s="23"/>
-      <c r="E283" s="23" t="s">
-        <v>379</v>
+      <c r="E283" s="23"/>
+      <c r="F283" s="23" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -56994,8 +57343,9 @@
       <c r="B284" s="23"/>
       <c r="C284" s="23"/>
       <c r="D284" s="23"/>
-      <c r="E284" s="23" t="s">
-        <v>380</v>
+      <c r="E284" s="23"/>
+      <c r="F284" s="23" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57003,8 +57353,9 @@
       <c r="B285" s="23"/>
       <c r="C285" s="23"/>
       <c r="D285" s="23"/>
-      <c r="E285" s="23" t="s">
-        <v>381</v>
+      <c r="E285" s="23"/>
+      <c r="F285" s="23" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57012,8 +57363,9 @@
       <c r="B286" s="23"/>
       <c r="C286" s="23"/>
       <c r="D286" s="23"/>
-      <c r="E286" s="23" t="s">
-        <v>382</v>
+      <c r="E286" s="23"/>
+      <c r="F286" s="23" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57021,8 +57373,9 @@
       <c r="B287" s="23"/>
       <c r="C287" s="23"/>
       <c r="D287" s="23"/>
-      <c r="E287" s="23" t="s">
-        <v>383</v>
+      <c r="E287" s="23"/>
+      <c r="F287" s="23" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57030,8 +57383,9 @@
       <c r="B288" s="23"/>
       <c r="C288" s="23"/>
       <c r="D288" s="23"/>
-      <c r="E288" s="23" t="s">
-        <v>384</v>
+      <c r="E288" s="23"/>
+      <c r="F288" s="23" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57039,8 +57393,9 @@
       <c r="B289" s="23"/>
       <c r="C289" s="23"/>
       <c r="D289" s="23"/>
-      <c r="E289" s="23" t="s">
-        <v>385</v>
+      <c r="E289" s="23"/>
+      <c r="F289" s="23" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57048,8 +57403,9 @@
       <c r="B290" s="23"/>
       <c r="C290" s="23"/>
       <c r="D290" s="23"/>
-      <c r="E290" s="23" t="s">
-        <v>386</v>
+      <c r="E290" s="23"/>
+      <c r="F290" s="23" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57057,8 +57413,9 @@
       <c r="B291" s="23"/>
       <c r="C291" s="23"/>
       <c r="D291" s="23"/>
-      <c r="E291" s="23" t="s">
-        <v>387</v>
+      <c r="E291" s="23"/>
+      <c r="F291" s="23" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57066,8 +57423,9 @@
       <c r="B292" s="23"/>
       <c r="C292" s="23"/>
       <c r="D292" s="23"/>
-      <c r="E292" s="23" t="s">
-        <v>388</v>
+      <c r="E292" s="23"/>
+      <c r="F292" s="23" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57075,8 +57433,9 @@
       <c r="B293" s="23"/>
       <c r="C293" s="23"/>
       <c r="D293" s="23"/>
-      <c r="E293" s="23" t="s">
-        <v>389</v>
+      <c r="E293" s="23"/>
+      <c r="F293" s="23" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57084,8 +57443,9 @@
       <c r="B294" s="23"/>
       <c r="C294" s="23"/>
       <c r="D294" s="23"/>
-      <c r="E294" s="23" t="s">
-        <v>390</v>
+      <c r="E294" s="23"/>
+      <c r="F294" s="23" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57093,8 +57453,9 @@
       <c r="B295" s="23"/>
       <c r="C295" s="23"/>
       <c r="D295" s="23"/>
-      <c r="E295" s="23" t="s">
-        <v>391</v>
+      <c r="E295" s="23"/>
+      <c r="F295" s="23" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57102,8 +57463,9 @@
       <c r="B296" s="23"/>
       <c r="C296" s="23"/>
       <c r="D296" s="23"/>
-      <c r="E296" s="23" t="s">
-        <v>392</v>
+      <c r="E296" s="23"/>
+      <c r="F296" s="23" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57111,8 +57473,9 @@
       <c r="B297" s="23"/>
       <c r="C297" s="23"/>
       <c r="D297" s="23"/>
-      <c r="E297" s="23" t="s">
-        <v>393</v>
+      <c r="E297" s="23"/>
+      <c r="F297" s="23" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57120,8 +57483,9 @@
       <c r="B298" s="23"/>
       <c r="C298" s="23"/>
       <c r="D298" s="23"/>
-      <c r="E298" s="23" t="s">
-        <v>394</v>
+      <c r="E298" s="23"/>
+      <c r="F298" s="23" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57129,8 +57493,9 @@
       <c r="B299" s="23"/>
       <c r="C299" s="23"/>
       <c r="D299" s="23"/>
-      <c r="E299" s="23" t="s">
-        <v>395</v>
+      <c r="E299" s="23"/>
+      <c r="F299" s="23" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57138,8 +57503,9 @@
       <c r="B300" s="23"/>
       <c r="C300" s="23"/>
       <c r="D300" s="23"/>
-      <c r="E300" s="23" t="s">
-        <v>396</v>
+      <c r="E300" s="23"/>
+      <c r="F300" s="23" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57147,8 +57513,9 @@
       <c r="B301" s="23"/>
       <c r="C301" s="23"/>
       <c r="D301" s="23"/>
-      <c r="E301" s="23" t="s">
-        <v>397</v>
+      <c r="E301" s="23"/>
+      <c r="F301" s="23" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57156,8 +57523,9 @@
       <c r="B302" s="23"/>
       <c r="C302" s="23"/>
       <c r="D302" s="23"/>
-      <c r="E302" s="23" t="s">
-        <v>398</v>
+      <c r="E302" s="23"/>
+      <c r="F302" s="23" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57165,8 +57533,9 @@
       <c r="B303" s="23"/>
       <c r="C303" s="23"/>
       <c r="D303" s="23"/>
-      <c r="E303" s="23" t="s">
-        <v>399</v>
+      <c r="E303" s="23"/>
+      <c r="F303" s="23" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57174,8 +57543,9 @@
       <c r="B304" s="23"/>
       <c r="C304" s="23"/>
       <c r="D304" s="23"/>
-      <c r="E304" s="23" t="s">
-        <v>400</v>
+      <c r="E304" s="23"/>
+      <c r="F304" s="23" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57183,8 +57553,9 @@
       <c r="B305" s="23"/>
       <c r="C305" s="23"/>
       <c r="D305" s="23"/>
-      <c r="E305" s="23" t="s">
-        <v>401</v>
+      <c r="E305" s="23"/>
+      <c r="F305" s="23" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57192,8 +57563,9 @@
       <c r="B306" s="23"/>
       <c r="C306" s="23"/>
       <c r="D306" s="23"/>
-      <c r="E306" s="23" t="s">
-        <v>402</v>
+      <c r="E306" s="23"/>
+      <c r="F306" s="23" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57201,8 +57573,9 @@
       <c r="B307" s="23"/>
       <c r="C307" s="23"/>
       <c r="D307" s="23"/>
-      <c r="E307" s="23" t="s">
-        <v>403</v>
+      <c r="E307" s="23"/>
+      <c r="F307" s="23" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57210,8 +57583,9 @@
       <c r="B308" s="23"/>
       <c r="C308" s="23"/>
       <c r="D308" s="23"/>
-      <c r="E308" s="23" t="s">
-        <v>404</v>
+      <c r="E308" s="23"/>
+      <c r="F308" s="23" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57219,8 +57593,9 @@
       <c r="B309" s="23"/>
       <c r="C309" s="23"/>
       <c r="D309" s="23"/>
-      <c r="E309" s="23" t="s">
-        <v>405</v>
+      <c r="E309" s="23"/>
+      <c r="F309" s="23" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57228,8 +57603,9 @@
       <c r="B310" s="23"/>
       <c r="C310" s="23"/>
       <c r="D310" s="23"/>
-      <c r="E310" s="23" t="s">
-        <v>406</v>
+      <c r="E310" s="23"/>
+      <c r="F310" s="23" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57237,8 +57613,9 @@
       <c r="B311" s="23"/>
       <c r="C311" s="23"/>
       <c r="D311" s="23"/>
-      <c r="E311" s="23" t="s">
-        <v>407</v>
+      <c r="E311" s="23"/>
+      <c r="F311" s="23" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57246,8 +57623,9 @@
       <c r="B312" s="23"/>
       <c r="C312" s="23"/>
       <c r="D312" s="23"/>
-      <c r="E312" s="23" t="s">
-        <v>408</v>
+      <c r="E312" s="23"/>
+      <c r="F312" s="23" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57255,8 +57633,9 @@
       <c r="B313" s="23"/>
       <c r="C313" s="23"/>
       <c r="D313" s="23"/>
-      <c r="E313" s="23" t="s">
-        <v>409</v>
+      <c r="E313" s="23"/>
+      <c r="F313" s="23" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57264,8 +57643,9 @@
       <c r="B314" s="23"/>
       <c r="C314" s="23"/>
       <c r="D314" s="23"/>
-      <c r="E314" s="23" t="s">
-        <v>410</v>
+      <c r="E314" s="23"/>
+      <c r="F314" s="23" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57273,8 +57653,9 @@
       <c r="B315" s="23"/>
       <c r="C315" s="23"/>
       <c r="D315" s="23"/>
-      <c r="E315" s="23" t="s">
-        <v>411</v>
+      <c r="E315" s="23"/>
+      <c r="F315" s="23" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57282,8 +57663,9 @@
       <c r="B316" s="23"/>
       <c r="C316" s="23"/>
       <c r="D316" s="23"/>
-      <c r="E316" s="23" t="s">
-        <v>412</v>
+      <c r="E316" s="23"/>
+      <c r="F316" s="23" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57291,8 +57673,9 @@
       <c r="B317" s="23"/>
       <c r="C317" s="23"/>
       <c r="D317" s="23"/>
-      <c r="E317" s="23" t="s">
-        <v>413</v>
+      <c r="E317" s="23"/>
+      <c r="F317" s="23" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57300,8 +57683,9 @@
       <c r="B318" s="23"/>
       <c r="C318" s="23"/>
       <c r="D318" s="23"/>
-      <c r="E318" s="23" t="s">
-        <v>414</v>
+      <c r="E318" s="23"/>
+      <c r="F318" s="23" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57309,8 +57693,9 @@
       <c r="B319" s="23"/>
       <c r="C319" s="23"/>
       <c r="D319" s="23"/>
-      <c r="E319" s="23" t="s">
-        <v>415</v>
+      <c r="E319" s="23"/>
+      <c r="F319" s="23" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57318,8 +57703,9 @@
       <c r="B320" s="23"/>
       <c r="C320" s="23"/>
       <c r="D320" s="23"/>
-      <c r="E320" s="23" t="s">
-        <v>416</v>
+      <c r="E320" s="23"/>
+      <c r="F320" s="23" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57327,8 +57713,9 @@
       <c r="B321" s="23"/>
       <c r="C321" s="23"/>
       <c r="D321" s="23"/>
-      <c r="E321" s="23" t="s">
-        <v>417</v>
+      <c r="E321" s="23"/>
+      <c r="F321" s="23" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57336,8 +57723,9 @@
       <c r="B322" s="23"/>
       <c r="C322" s="23"/>
       <c r="D322" s="23"/>
-      <c r="E322" s="23" t="s">
-        <v>418</v>
+      <c r="E322" s="23"/>
+      <c r="F322" s="23" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57345,8 +57733,9 @@
       <c r="B323" s="23"/>
       <c r="C323" s="23"/>
       <c r="D323" s="23"/>
-      <c r="E323" s="23" t="s">
-        <v>419</v>
+      <c r="E323" s="23"/>
+      <c r="F323" s="23" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57354,8 +57743,9 @@
       <c r="B324" s="23"/>
       <c r="C324" s="23"/>
       <c r="D324" s="23"/>
-      <c r="E324" s="23" t="s">
-        <v>420</v>
+      <c r="E324" s="23"/>
+      <c r="F324" s="23" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57363,8 +57753,9 @@
       <c r="B325" s="23"/>
       <c r="C325" s="23"/>
       <c r="D325" s="23"/>
-      <c r="E325" s="23" t="s">
-        <v>421</v>
+      <c r="E325" s="23"/>
+      <c r="F325" s="23" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57372,8 +57763,9 @@
       <c r="B326" s="23"/>
       <c r="C326" s="23"/>
       <c r="D326" s="23"/>
-      <c r="E326" s="23" t="s">
-        <v>422</v>
+      <c r="E326" s="23"/>
+      <c r="F326" s="23" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57381,8 +57773,9 @@
       <c r="B327" s="23"/>
       <c r="C327" s="23"/>
       <c r="D327" s="23"/>
-      <c r="E327" s="23" t="s">
-        <v>423</v>
+      <c r="E327" s="23"/>
+      <c r="F327" s="23" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57390,8 +57783,9 @@
       <c r="B328" s="23"/>
       <c r="C328" s="23"/>
       <c r="D328" s="23"/>
-      <c r="E328" s="23" t="s">
-        <v>424</v>
+      <c r="E328" s="23"/>
+      <c r="F328" s="23" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57399,8 +57793,9 @@
       <c r="B329" s="23"/>
       <c r="C329" s="23"/>
       <c r="D329" s="23"/>
-      <c r="E329" s="23" t="s">
-        <v>425</v>
+      <c r="E329" s="23"/>
+      <c r="F329" s="23" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57408,8 +57803,9 @@
       <c r="B330" s="23"/>
       <c r="C330" s="23"/>
       <c r="D330" s="23"/>
-      <c r="E330" s="23" t="s">
-        <v>426</v>
+      <c r="E330" s="23"/>
+      <c r="F330" s="23" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57417,8 +57813,9 @@
       <c r="B331" s="23"/>
       <c r="C331" s="23"/>
       <c r="D331" s="23"/>
-      <c r="E331" s="23" t="s">
-        <v>427</v>
+      <c r="E331" s="23"/>
+      <c r="F331" s="23" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57426,8 +57823,9 @@
       <c r="B332" s="23"/>
       <c r="C332" s="23"/>
       <c r="D332" s="23"/>
-      <c r="E332" s="23" t="s">
-        <v>428</v>
+      <c r="E332" s="23"/>
+      <c r="F332" s="23" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57435,8 +57833,9 @@
       <c r="B333" s="23"/>
       <c r="C333" s="23"/>
       <c r="D333" s="23"/>
-      <c r="E333" s="23" t="s">
-        <v>429</v>
+      <c r="E333" s="23"/>
+      <c r="F333" s="23" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57444,8 +57843,9 @@
       <c r="B334" s="23"/>
       <c r="C334" s="23"/>
       <c r="D334" s="23"/>
-      <c r="E334" s="23" t="s">
-        <v>430</v>
+      <c r="E334" s="23"/>
+      <c r="F334" s="23" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57453,8 +57853,9 @@
       <c r="B335" s="23"/>
       <c r="C335" s="23"/>
       <c r="D335" s="23"/>
-      <c r="E335" s="23" t="s">
-        <v>431</v>
+      <c r="E335" s="23"/>
+      <c r="F335" s="23" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57462,8 +57863,9 @@
       <c r="B336" s="23"/>
       <c r="C336" s="23"/>
       <c r="D336" s="23"/>
-      <c r="E336" s="23" t="s">
-        <v>432</v>
+      <c r="E336" s="23"/>
+      <c r="F336" s="23" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57471,8 +57873,9 @@
       <c r="B337" s="23"/>
       <c r="C337" s="23"/>
       <c r="D337" s="23"/>
-      <c r="E337" s="23" t="s">
-        <v>433</v>
+      <c r="E337" s="23"/>
+      <c r="F337" s="23" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57480,8 +57883,9 @@
       <c r="B338" s="23"/>
       <c r="C338" s="23"/>
       <c r="D338" s="23"/>
-      <c r="E338" s="23" t="s">
-        <v>434</v>
+      <c r="E338" s="23"/>
+      <c r="F338" s="23" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57489,8 +57893,9 @@
       <c r="B339" s="23"/>
       <c r="C339" s="23"/>
       <c r="D339" s="23"/>
-      <c r="E339" s="23" t="s">
-        <v>435</v>
+      <c r="E339" s="23"/>
+      <c r="F339" s="23" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57498,8 +57903,9 @@
       <c r="B340" s="23"/>
       <c r="C340" s="23"/>
       <c r="D340" s="23"/>
-      <c r="E340" s="23" t="s">
-        <v>436</v>
+      <c r="E340" s="23"/>
+      <c r="F340" s="23" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57507,8 +57913,9 @@
       <c r="B341" s="23"/>
       <c r="C341" s="23"/>
       <c r="D341" s="23"/>
-      <c r="E341" s="23" t="s">
-        <v>437</v>
+      <c r="E341" s="23"/>
+      <c r="F341" s="23" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57516,8 +57923,9 @@
       <c r="B342" s="23"/>
       <c r="C342" s="23"/>
       <c r="D342" s="23"/>
-      <c r="E342" s="23" t="s">
-        <v>438</v>
+      <c r="E342" s="23"/>
+      <c r="F342" s="23" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57525,8 +57933,9 @@
       <c r="B343" s="23"/>
       <c r="C343" s="23"/>
       <c r="D343" s="23"/>
-      <c r="E343" s="23" t="s">
-        <v>439</v>
+      <c r="E343" s="23"/>
+      <c r="F343" s="23" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57534,8 +57943,9 @@
       <c r="B344" s="23"/>
       <c r="C344" s="23"/>
       <c r="D344" s="23"/>
-      <c r="E344" s="23" t="s">
-        <v>440</v>
+      <c r="E344" s="23"/>
+      <c r="F344" s="23" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57543,8 +57953,9 @@
       <c r="B345" s="23"/>
       <c r="C345" s="23"/>
       <c r="D345" s="23"/>
-      <c r="E345" s="23" t="s">
-        <v>441</v>
+      <c r="E345" s="23"/>
+      <c r="F345" s="23" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57552,8 +57963,9 @@
       <c r="B346" s="23"/>
       <c r="C346" s="23"/>
       <c r="D346" s="23"/>
-      <c r="E346" s="23" t="s">
-        <v>442</v>
+      <c r="E346" s="23"/>
+      <c r="F346" s="23" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57561,8 +57973,9 @@
       <c r="B347" s="23"/>
       <c r="C347" s="23"/>
       <c r="D347" s="23"/>
-      <c r="E347" s="23" t="s">
-        <v>443</v>
+      <c r="E347" s="23"/>
+      <c r="F347" s="23" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57570,8 +57983,9 @@
       <c r="B348" s="23"/>
       <c r="C348" s="23"/>
       <c r="D348" s="23"/>
-      <c r="E348" s="23" t="s">
-        <v>444</v>
+      <c r="E348" s="23"/>
+      <c r="F348" s="23" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57579,8 +57993,9 @@
       <c r="B349" s="23"/>
       <c r="C349" s="23"/>
       <c r="D349" s="23"/>
-      <c r="E349" s="23" t="s">
-        <v>445</v>
+      <c r="E349" s="23"/>
+      <c r="F349" s="23" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57588,8 +58003,9 @@
       <c r="B350" s="23"/>
       <c r="C350" s="23"/>
       <c r="D350" s="23"/>
-      <c r="E350" s="23" t="s">
-        <v>446</v>
+      <c r="E350" s="23"/>
+      <c r="F350" s="23" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57597,8 +58013,9 @@
       <c r="B351" s="23"/>
       <c r="C351" s="23"/>
       <c r="D351" s="23"/>
-      <c r="E351" s="23" t="s">
-        <v>447</v>
+      <c r="E351" s="23"/>
+      <c r="F351" s="23" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57606,8 +58023,9 @@
       <c r="B352" s="23"/>
       <c r="C352" s="23"/>
       <c r="D352" s="23"/>
-      <c r="E352" s="23" t="s">
-        <v>448</v>
+      <c r="E352" s="23"/>
+      <c r="F352" s="23" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57615,8 +58033,9 @@
       <c r="B353" s="23"/>
       <c r="C353" s="23"/>
       <c r="D353" s="23"/>
-      <c r="E353" s="23" t="s">
-        <v>449</v>
+      <c r="E353" s="23"/>
+      <c r="F353" s="23" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57624,8 +58043,9 @@
       <c r="B354" s="23"/>
       <c r="C354" s="23"/>
       <c r="D354" s="23"/>
-      <c r="E354" s="23" t="s">
-        <v>450</v>
+      <c r="E354" s="23"/>
+      <c r="F354" s="23" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57633,8 +58053,9 @@
       <c r="B355" s="23"/>
       <c r="C355" s="23"/>
       <c r="D355" s="23"/>
-      <c r="E355" s="23" t="s">
-        <v>451</v>
+      <c r="E355" s="23"/>
+      <c r="F355" s="23" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57642,8 +58063,9 @@
       <c r="B356" s="23"/>
       <c r="C356" s="23"/>
       <c r="D356" s="23"/>
-      <c r="E356" s="23" t="s">
-        <v>452</v>
+      <c r="E356" s="23"/>
+      <c r="F356" s="23" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57651,8 +58073,9 @@
       <c r="B357" s="23"/>
       <c r="C357" s="23"/>
       <c r="D357" s="23"/>
-      <c r="E357" s="23" t="s">
-        <v>453</v>
+      <c r="E357" s="23"/>
+      <c r="F357" s="23" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57660,8 +58083,9 @@
       <c r="B358" s="23"/>
       <c r="C358" s="23"/>
       <c r="D358" s="23"/>
-      <c r="E358" s="23" t="s">
-        <v>454</v>
+      <c r="E358" s="23"/>
+      <c r="F358" s="23" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57669,8 +58093,9 @@
       <c r="B359" s="23"/>
       <c r="C359" s="23"/>
       <c r="D359" s="23"/>
-      <c r="E359" s="23" t="s">
-        <v>455</v>
+      <c r="E359" s="23"/>
+      <c r="F359" s="23" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57678,8 +58103,9 @@
       <c r="B360" s="23"/>
       <c r="C360" s="23"/>
       <c r="D360" s="23"/>
-      <c r="E360" s="23" t="s">
-        <v>456</v>
+      <c r="E360" s="23"/>
+      <c r="F360" s="23" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57687,8 +58113,9 @@
       <c r="B361" s="23"/>
       <c r="C361" s="23"/>
       <c r="D361" s="23"/>
-      <c r="E361" s="23" t="s">
-        <v>457</v>
+      <c r="E361" s="23"/>
+      <c r="F361" s="23" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57696,8 +58123,9 @@
       <c r="B362" s="23"/>
       <c r="C362" s="23"/>
       <c r="D362" s="23"/>
-      <c r="E362" s="23" t="s">
-        <v>458</v>
+      <c r="E362" s="23"/>
+      <c r="F362" s="23" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57705,8 +58133,9 @@
       <c r="B363" s="23"/>
       <c r="C363" s="23"/>
       <c r="D363" s="23"/>
-      <c r="E363" s="23" t="s">
-        <v>459</v>
+      <c r="E363" s="23"/>
+      <c r="F363" s="23" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57714,8 +58143,9 @@
       <c r="B364" s="23"/>
       <c r="C364" s="23"/>
       <c r="D364" s="23"/>
-      <c r="E364" s="23" t="s">
-        <v>460</v>
+      <c r="E364" s="23"/>
+      <c r="F364" s="23" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57723,8 +58153,9 @@
       <c r="B365" s="23"/>
       <c r="C365" s="23"/>
       <c r="D365" s="23"/>
-      <c r="E365" s="23" t="s">
-        <v>461</v>
+      <c r="E365" s="23"/>
+      <c r="F365" s="23" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57732,8 +58163,9 @@
       <c r="B366" s="23"/>
       <c r="C366" s="23"/>
       <c r="D366" s="23"/>
-      <c r="E366" s="23" t="s">
-        <v>462</v>
+      <c r="E366" s="23"/>
+      <c r="F366" s="23" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57741,8 +58173,9 @@
       <c r="B367" s="23"/>
       <c r="C367" s="23"/>
       <c r="D367" s="23"/>
-      <c r="E367" s="23" t="s">
-        <v>463</v>
+      <c r="E367" s="23"/>
+      <c r="F367" s="23" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57750,8 +58183,9 @@
       <c r="B368" s="23"/>
       <c r="C368" s="23"/>
       <c r="D368" s="23"/>
-      <c r="E368" s="23" t="s">
-        <v>464</v>
+      <c r="E368" s="23"/>
+      <c r="F368" s="23" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57759,8 +58193,9 @@
       <c r="B369" s="23"/>
       <c r="C369" s="23"/>
       <c r="D369" s="23"/>
-      <c r="E369" s="23" t="s">
-        <v>465</v>
+      <c r="E369" s="23"/>
+      <c r="F369" s="23" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57768,8 +58203,9 @@
       <c r="B370" s="23"/>
       <c r="C370" s="23"/>
       <c r="D370" s="23"/>
-      <c r="E370" s="23" t="s">
-        <v>466</v>
+      <c r="E370" s="23"/>
+      <c r="F370" s="23" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57777,8 +58213,9 @@
       <c r="B371" s="23"/>
       <c r="C371" s="23"/>
       <c r="D371" s="23"/>
-      <c r="E371" s="23" t="s">
-        <v>467</v>
+      <c r="E371" s="23"/>
+      <c r="F371" s="23" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57786,8 +58223,9 @@
       <c r="B372" s="23"/>
       <c r="C372" s="23"/>
       <c r="D372" s="23"/>
-      <c r="E372" s="23" t="s">
-        <v>468</v>
+      <c r="E372" s="23"/>
+      <c r="F372" s="23" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57795,8 +58233,9 @@
       <c r="B373" s="23"/>
       <c r="C373" s="23"/>
       <c r="D373" s="23"/>
-      <c r="E373" s="23" t="s">
-        <v>469</v>
+      <c r="E373" s="23"/>
+      <c r="F373" s="23" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57804,8 +58243,9 @@
       <c r="B374" s="23"/>
       <c r="C374" s="23"/>
       <c r="D374" s="23"/>
-      <c r="E374" s="23" t="s">
-        <v>470</v>
+      <c r="E374" s="23"/>
+      <c r="F374" s="23" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57813,8 +58253,9 @@
       <c r="B375" s="23"/>
       <c r="C375" s="23"/>
       <c r="D375" s="23"/>
-      <c r="E375" s="23" t="s">
-        <v>471</v>
+      <c r="E375" s="23"/>
+      <c r="F375" s="23" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57822,8 +58263,9 @@
       <c r="B376" s="23"/>
       <c r="C376" s="23"/>
       <c r="D376" s="23"/>
-      <c r="E376" s="23" t="s">
-        <v>472</v>
+      <c r="E376" s="23"/>
+      <c r="F376" s="23" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57831,8 +58273,9 @@
       <c r="B377" s="23"/>
       <c r="C377" s="23"/>
       <c r="D377" s="23"/>
-      <c r="E377" s="23" t="s">
-        <v>473</v>
+      <c r="E377" s="23"/>
+      <c r="F377" s="23" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57840,8 +58283,9 @@
       <c r="B378" s="23"/>
       <c r="C378" s="23"/>
       <c r="D378" s="23"/>
-      <c r="E378" s="23" t="s">
-        <v>474</v>
+      <c r="E378" s="23"/>
+      <c r="F378" s="23" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57849,8 +58293,9 @@
       <c r="B379" s="23"/>
       <c r="C379" s="23"/>
       <c r="D379" s="23"/>
-      <c r="E379" s="23" t="s">
-        <v>475</v>
+      <c r="E379" s="23"/>
+      <c r="F379" s="23" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57858,8 +58303,9 @@
       <c r="B380" s="23"/>
       <c r="C380" s="23"/>
       <c r="D380" s="23"/>
-      <c r="E380" s="23" t="s">
-        <v>476</v>
+      <c r="E380" s="23"/>
+      <c r="F380" s="23" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57867,8 +58313,9 @@
       <c r="B381" s="23"/>
       <c r="C381" s="23"/>
       <c r="D381" s="23"/>
-      <c r="E381" s="23" t="s">
-        <v>477</v>
+      <c r="E381" s="23"/>
+      <c r="F381" s="23" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57876,8 +58323,9 @@
       <c r="B382" s="23"/>
       <c r="C382" s="23"/>
       <c r="D382" s="23"/>
-      <c r="E382" s="23" t="s">
-        <v>478</v>
+      <c r="E382" s="23"/>
+      <c r="F382" s="23" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57885,8 +58333,9 @@
       <c r="B383" s="23"/>
       <c r="C383" s="23"/>
       <c r="D383" s="23"/>
-      <c r="E383" s="23" t="s">
-        <v>479</v>
+      <c r="E383" s="23"/>
+      <c r="F383" s="23" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57894,8 +58343,9 @@
       <c r="B384" s="23"/>
       <c r="C384" s="23"/>
       <c r="D384" s="23"/>
-      <c r="E384" s="23" t="s">
-        <v>480</v>
+      <c r="E384" s="23"/>
+      <c r="F384" s="23" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57903,8 +58353,9 @@
       <c r="B385" s="23"/>
       <c r="C385" s="23"/>
       <c r="D385" s="23"/>
-      <c r="E385" s="23" t="s">
-        <v>481</v>
+      <c r="E385" s="23"/>
+      <c r="F385" s="23" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -58530,5 +58981,9 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/backend/fms_core/static/submission_templates/Experiment_run_Infinium_v4_13_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_Infinium_v4_13_0.xlsx
@@ -53674,10 +53674,6 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:D101" type="list">
-      <formula1>#ref!</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G100 F101" type="list">
       <formula1>Index!$D$2:$D$25</formula1>
       <formula2>0</formula2>
@@ -53704,6 +53700,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G9" type="list">
       <formula1>INDIRECT(SUBSTITUTE(INDEX(Experiments!$D$7:$D$100, MATCH($A9,Experiments!$A$7:$A$100,0))," ","_"))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:D101" type="none">
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
